--- a/meta/MelanomaCohort2_FOVannotations.xlsx
+++ b/meta/MelanomaCohort2_FOVannotations.xlsx
@@ -5,17 +5,17 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\Maryam\Analysis\Melanoma_IL2\Melanoma_IL2_Cohort2\MetaData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\HaloData\Melanoma_IL2__Final\Cohort2\MetaData\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="600" yWindow="15" windowWidth="25395" windowHeight="13935" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1779" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="73">
   <si>
     <t>FOV_number</t>
   </si>
@@ -184,12 +184,6 @@
   </si>
   <si>
     <t>CD68</t>
-  </si>
-  <si>
-    <t>?</t>
-  </si>
-  <si>
-    <t>Center?</t>
   </si>
   <si>
     <t>~20 microns of interface, SOX10 staining gradient</t>
@@ -911,9 +905,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M403"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L192" sqref="L192"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -924,7 +918,7 @@
     <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
     <col min="9" max="9" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.25" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="34.125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="12" width="28" style="1" customWidth="1"/>
     <col min="13" max="13" width="26.375" style="4" customWidth="1"/>
     <col min="14" max="14" width="14.375" style="4" customWidth="1"/>
@@ -960,7 +954,7 @@
         <v>6</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="K1" s="1" t="s">
         <v>48</v>
@@ -995,9 +989,11 @@
       <c r="K2" s="4">
         <v>1</v>
       </c>
-      <c r="L2" s="4"/>
+      <c r="L2" s="4">
+        <v>1</v>
+      </c>
       <c r="M2" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:13" ht="15.75">
@@ -1021,9 +1017,11 @@
       <c r="K3" s="4">
         <v>2</v>
       </c>
-      <c r="L3" s="4"/>
+      <c r="L3" s="4">
+        <v>1</v>
+      </c>
       <c r="M3" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="15.75">
@@ -1045,9 +1043,11 @@
       <c r="I4" s="4"/>
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
-      <c r="L4" s="4"/>
+      <c r="L4" s="4">
+        <v>1</v>
+      </c>
       <c r="M4" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="15.75">
@@ -1069,9 +1069,11 @@
       <c r="I5" s="4"/>
       <c r="J5" s="4"/>
       <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
+      <c r="L5" s="4">
+        <v>1</v>
+      </c>
       <c r="M5" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="15.75">
@@ -1093,9 +1095,11 @@
       <c r="I6" s="4"/>
       <c r="J6" s="4"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
+      <c r="L6" s="4">
+        <v>1</v>
+      </c>
       <c r="M6" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:13" ht="15.75">
@@ -1117,9 +1121,11 @@
       <c r="I7" s="4"/>
       <c r="J7" s="4"/>
       <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
+      <c r="L7" s="4">
+        <v>1</v>
+      </c>
       <c r="M7" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="15.75">
@@ -1141,9 +1147,11 @@
       <c r="I8" s="4"/>
       <c r="J8" s="4"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
+      <c r="L8" s="4">
+        <v>8</v>
+      </c>
       <c r="M8" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="15.75">
@@ -1170,9 +1178,11 @@
       <c r="K9" s="4">
         <v>1</v>
       </c>
-      <c r="L9" s="4"/>
+      <c r="L9" s="4">
+        <v>1</v>
+      </c>
       <c r="M9" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="15.75">
@@ -1196,7 +1206,7 @@
       <c r="K10" s="4"/>
       <c r="L10" s="4"/>
       <c r="M10" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="15.75">
@@ -1222,7 +1232,7 @@
       </c>
       <c r="L11" s="4"/>
       <c r="M11" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="15.75">
@@ -1250,7 +1260,7 @@
       </c>
       <c r="L12" s="4"/>
       <c r="M12" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="15.75">
@@ -1276,7 +1286,7 @@
       <c r="K13" s="4"/>
       <c r="L13" s="4"/>
       <c r="M13" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="15.75">
@@ -1302,7 +1312,7 @@
       </c>
       <c r="L14" s="4"/>
       <c r="M14" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="15.75">
@@ -1330,7 +1340,7 @@
       </c>
       <c r="L15" s="4"/>
       <c r="M15" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="15.75">
@@ -1357,9 +1367,11 @@
         <v>1</v>
       </c>
       <c r="K16" s="4"/>
-      <c r="L16" s="4"/>
+      <c r="L16" s="4">
+        <v>12</v>
+      </c>
       <c r="M16" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75">
@@ -1383,9 +1395,11 @@
       </c>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="4"/>
+      <c r="L17" s="4">
+        <v>1</v>
+      </c>
       <c r="M17" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="18" spans="1:13" ht="15.75">
@@ -1409,9 +1423,11 @@
       </c>
       <c r="J18" s="4"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="4"/>
+      <c r="L18" s="4">
+        <v>1</v>
+      </c>
       <c r="M18" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="19" spans="1:13" ht="15.75">
@@ -1435,9 +1451,11 @@
         <v>1</v>
       </c>
       <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
+      <c r="L19" s="4">
+        <v>8</v>
+      </c>
       <c r="M19" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="20" spans="1:13" ht="15.75">
@@ -1461,9 +1479,11 @@
         <v>1</v>
       </c>
       <c r="K20" s="4"/>
-      <c r="L20" s="4"/>
+      <c r="L20" s="4">
+        <v>7</v>
+      </c>
       <c r="M20" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="21" spans="1:13" ht="15.75">
@@ -1487,9 +1507,11 @@
         <v>1</v>
       </c>
       <c r="K21" s="4"/>
-      <c r="L21" s="4"/>
+      <c r="L21" s="4">
+        <v>3</v>
+      </c>
       <c r="M21" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="1:13" ht="15.75">
@@ -1511,9 +1533,11 @@
       <c r="I22" s="4"/>
       <c r="J22" s="4"/>
       <c r="K22" s="4"/>
-      <c r="L22" s="4"/>
+      <c r="L22" s="4">
+        <v>6</v>
+      </c>
       <c r="M22" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="23" spans="1:13" ht="15.75">
@@ -1537,9 +1561,11 @@
         <v>1</v>
       </c>
       <c r="K23" s="4"/>
-      <c r="L23" s="4"/>
+      <c r="L23" s="4">
+        <v>1</v>
+      </c>
       <c r="M23" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="24" spans="1:13" ht="15.75">
@@ -1563,9 +1589,11 @@
         <v>1</v>
       </c>
       <c r="K24" s="4"/>
-      <c r="L24" s="4"/>
+      <c r="L24" s="4">
+        <v>15</v>
+      </c>
       <c r="M24" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:13" ht="15.75">
@@ -1594,9 +1622,11 @@
         <v>1</v>
       </c>
       <c r="K25" s="4"/>
-      <c r="L25" s="4"/>
+      <c r="L25" s="4">
+        <v>1</v>
+      </c>
       <c r="M25" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="26" spans="1:13" ht="15.75">
@@ -1616,7 +1646,9 @@
         <v>13</v>
       </c>
       <c r="F26" s="4"/>
-      <c r="G26" s="4"/>
+      <c r="G26" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H26" s="4" t="s">
         <v>52</v>
       </c>
@@ -1627,7 +1659,7 @@
       <c r="K26" s="4"/>
       <c r="L26" s="4"/>
       <c r="M26" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" spans="1:13" ht="15.75">
@@ -1647,7 +1679,9 @@
         <v>39</v>
       </c>
       <c r="F27" s="4"/>
-      <c r="G27" s="4"/>
+      <c r="G27" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H27" s="4" t="s">
         <v>52</v>
       </c>
@@ -1658,7 +1692,7 @@
       <c r="K27" s="4"/>
       <c r="L27" s="4"/>
       <c r="M27" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:13" ht="15.75">
@@ -1682,9 +1716,11 @@
         <v>1</v>
       </c>
       <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
+      <c r="L28" s="4">
+        <v>2</v>
+      </c>
       <c r="M28" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="29" spans="1:13" ht="15.75">
@@ -1708,7 +1744,7 @@
       <c r="K29" s="4"/>
       <c r="L29" s="4"/>
       <c r="M29" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="30" spans="1:13" ht="15.75">
@@ -1732,7 +1768,7 @@
       <c r="K30" s="4"/>
       <c r="L30" s="4"/>
       <c r="M30" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="31" spans="1:13" ht="15.75">
@@ -1756,7 +1792,7 @@
       <c r="K31" s="4"/>
       <c r="L31" s="4"/>
       <c r="M31" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="32" spans="1:13" ht="15.75">
@@ -1780,7 +1816,7 @@
       <c r="K32" s="4"/>
       <c r="L32" s="4"/>
       <c r="M32" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="33" spans="1:13" ht="15.75">
@@ -1804,7 +1840,7 @@
       <c r="K33" s="4"/>
       <c r="L33" s="4"/>
       <c r="M33" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" spans="1:13" ht="15.75">
@@ -1826,9 +1862,11 @@
       <c r="I34" s="4"/>
       <c r="J34" s="4"/>
       <c r="K34" s="4"/>
-      <c r="L34" s="4"/>
+      <c r="L34" s="4">
+        <v>5</v>
+      </c>
       <c r="M34" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="35" spans="1:13" ht="15.75">
@@ -1852,9 +1890,11 @@
         <v>1</v>
       </c>
       <c r="K35" s="4"/>
-      <c r="L35" s="4"/>
+      <c r="L35" s="4">
+        <v>4</v>
+      </c>
       <c r="M35" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="36" spans="1:13" ht="15.75">
@@ -1871,7 +1911,9 @@
         <v>9</v>
       </c>
       <c r="F36" s="4"/>
-      <c r="G36" s="4"/>
+      <c r="G36" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H36" s="4" t="s">
         <v>52</v>
       </c>
@@ -1880,7 +1922,7 @@
       <c r="K36" s="4"/>
       <c r="L36" s="4"/>
       <c r="M36" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="37" spans="1:13" ht="15.75">
@@ -1897,7 +1939,9 @@
         <v>9</v>
       </c>
       <c r="F37" s="4"/>
-      <c r="G37" s="4"/>
+      <c r="G37" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H37" s="4" t="s">
         <v>52</v>
       </c>
@@ -1906,7 +1950,7 @@
       <c r="K37" s="4"/>
       <c r="L37" s="4"/>
       <c r="M37" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="38" spans="1:13" ht="15.75">
@@ -1923,7 +1967,9 @@
         <v>9</v>
       </c>
       <c r="F38" s="4"/>
-      <c r="G38" s="4"/>
+      <c r="G38" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H38" s="4" t="s">
         <v>52</v>
       </c>
@@ -1932,7 +1978,7 @@
       <c r="K38" s="4"/>
       <c r="L38" s="4"/>
       <c r="M38" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="39" spans="1:13" ht="15.75">
@@ -1954,9 +2000,11 @@
       <c r="I39" s="4"/>
       <c r="J39" s="4"/>
       <c r="K39" s="4"/>
-      <c r="L39" s="4"/>
+      <c r="L39" s="4">
+        <v>4</v>
+      </c>
       <c r="M39" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="40" spans="1:13" ht="15.75">
@@ -1978,9 +2026,11 @@
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
       <c r="K40" s="4"/>
-      <c r="L40" s="4"/>
+      <c r="L40" s="4">
+        <v>6</v>
+      </c>
       <c r="M40" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="41" spans="1:13" ht="15.75">
@@ -2007,9 +2057,11 @@
       </c>
       <c r="J41" s="4"/>
       <c r="K41" s="4"/>
-      <c r="L41" s="4"/>
+      <c r="L41" s="4">
+        <v>16</v>
+      </c>
       <c r="M41" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:13" ht="15.75">
@@ -2033,7 +2085,7 @@
       <c r="K42" s="4"/>
       <c r="L42" s="4"/>
       <c r="M42" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="43" spans="1:13" ht="15.75">
@@ -2050,7 +2102,9 @@
         <v>42</v>
       </c>
       <c r="F43" s="4"/>
-      <c r="G43" s="4"/>
+      <c r="G43" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H43" s="4" t="s">
         <v>52</v>
       </c>
@@ -2059,7 +2113,7 @@
       <c r="K43" s="4"/>
       <c r="L43" s="4"/>
       <c r="M43" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="44" spans="1:13" ht="15.75">
@@ -2086,7 +2140,7 @@
       <c r="K44" s="4"/>
       <c r="L44" s="4"/>
       <c r="M44" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="45" spans="1:13" ht="15.75">
@@ -2110,7 +2164,7 @@
       <c r="K45" s="4"/>
       <c r="L45" s="4"/>
       <c r="M45" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="46" spans="1:13" ht="15.75">
@@ -2134,7 +2188,7 @@
       <c r="K46" s="4"/>
       <c r="L46" s="4"/>
       <c r="M46" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="47" spans="1:13" ht="15.75">
@@ -2161,7 +2215,7 @@
       <c r="K47" s="4"/>
       <c r="L47" s="4"/>
       <c r="M47" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="48" spans="1:13" ht="15.75">
@@ -2185,7 +2239,7 @@
       <c r="K48" s="4"/>
       <c r="L48" s="4"/>
       <c r="M48" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="49" spans="1:13" ht="15.75">
@@ -2211,7 +2265,7 @@
       <c r="K49" s="4"/>
       <c r="L49" s="4"/>
       <c r="M49" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="50" spans="1:13" ht="15.75">
@@ -2237,7 +2291,7 @@
       <c r="K50" s="4"/>
       <c r="L50" s="4"/>
       <c r="M50" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="51" spans="1:13" ht="15.75">
@@ -2261,7 +2315,7 @@
       <c r="K51" s="4"/>
       <c r="L51" s="4"/>
       <c r="M51" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="52" spans="1:13" ht="15.75">
@@ -2285,7 +2339,7 @@
       <c r="K52" s="4"/>
       <c r="L52" s="4"/>
       <c r="M52" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="53" spans="1:13" ht="15.75">
@@ -2309,7 +2363,7 @@
       <c r="K53" s="4"/>
       <c r="L53" s="4"/>
       <c r="M53" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="54" spans="1:13" ht="15.75">
@@ -2333,7 +2387,7 @@
       <c r="K54" s="4"/>
       <c r="L54" s="4"/>
       <c r="M54" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="55" spans="1:13" ht="15.75">
@@ -2357,7 +2411,7 @@
       <c r="K55" s="4"/>
       <c r="L55" s="4"/>
       <c r="M55" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="56" spans="1:13" ht="15.75">
@@ -2381,7 +2435,7 @@
       <c r="K56" s="4"/>
       <c r="L56" s="4"/>
       <c r="M56" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="57" spans="1:13" ht="15.75">
@@ -2405,7 +2459,7 @@
       <c r="K57" s="4"/>
       <c r="L57" s="4"/>
       <c r="M57" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="58" spans="1:13" ht="15.75">
@@ -2431,7 +2485,7 @@
       <c r="K58" s="4"/>
       <c r="L58" s="4"/>
       <c r="M58" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="59" spans="1:13" ht="15.75">
@@ -2457,7 +2511,7 @@
       <c r="K59" s="4"/>
       <c r="L59" s="4"/>
       <c r="M59" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="60" spans="1:13" ht="15.75">
@@ -2483,7 +2537,7 @@
       <c r="K60" s="4"/>
       <c r="L60" s="4"/>
       <c r="M60" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="61" spans="1:13" ht="15.75">
@@ -2507,9 +2561,11 @@
         <v>1</v>
       </c>
       <c r="K61" s="4"/>
-      <c r="L61" s="4"/>
+      <c r="L61" s="4">
+        <v>24</v>
+      </c>
       <c r="M61" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="62" spans="1:13" ht="15.75">
@@ -2531,9 +2587,11 @@
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
       <c r="K62" s="4"/>
-      <c r="L62" s="4"/>
+      <c r="L62" s="4">
+        <v>18</v>
+      </c>
       <c r="M62" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="63" spans="1:13" ht="15.75">
@@ -2555,9 +2613,11 @@
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
       <c r="K63" s="4"/>
-      <c r="L63" s="4"/>
+      <c r="L63" s="4">
+        <v>2</v>
+      </c>
       <c r="M63" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="64" spans="1:13" ht="15.75">
@@ -2571,8 +2631,9 @@
         <v>8</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>9</v>
-      </c>
+        <v>10</v>
+      </c>
+      <c r="E64" s="6"/>
       <c r="F64" s="4"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -2583,7 +2644,7 @@
       <c r="K64" s="4"/>
       <c r="L64" s="4"/>
       <c r="M64" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="65" spans="1:13" ht="15.75">
@@ -2605,9 +2666,11 @@
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
       <c r="K65" s="4"/>
-      <c r="L65" s="4"/>
+      <c r="L65" s="4">
+        <v>5</v>
+      </c>
       <c r="M65" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="66" spans="1:13" ht="15.75">
@@ -2631,9 +2694,11 @@
         <v>1</v>
       </c>
       <c r="K66" s="4"/>
-      <c r="L66" s="4"/>
+      <c r="L66" s="4">
+        <v>14</v>
+      </c>
       <c r="M66" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="67" spans="1:13" ht="15.75">
@@ -2657,9 +2722,11 @@
         <v>1</v>
       </c>
       <c r="K67" s="4"/>
-      <c r="L67" s="4"/>
+      <c r="L67" s="4">
+        <v>77</v>
+      </c>
       <c r="M67" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="68" spans="1:13" ht="15.75">
@@ -2683,9 +2750,11 @@
         <v>1</v>
       </c>
       <c r="K68" s="4"/>
-      <c r="L68" s="4"/>
+      <c r="L68" s="4">
+        <v>25</v>
+      </c>
       <c r="M68" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="69" spans="1:13" ht="15.75">
@@ -2710,9 +2779,11 @@
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
       <c r="K69" s="4"/>
-      <c r="L69" s="4"/>
+      <c r="L69" s="4">
+        <v>8</v>
+      </c>
       <c r="M69" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="70" spans="1:13" ht="15.75">
@@ -2736,9 +2807,11 @@
         <v>1</v>
       </c>
       <c r="K70" s="4"/>
-      <c r="L70" s="4"/>
+      <c r="L70" s="4">
+        <v>12</v>
+      </c>
       <c r="M70" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="71" spans="1:13" ht="15.75">
@@ -2765,9 +2838,11 @@
         <v>1</v>
       </c>
       <c r="K71" s="4"/>
-      <c r="L71" s="4"/>
+      <c r="L71" s="4">
+        <v>3</v>
+      </c>
       <c r="M71" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="72" spans="1:13" ht="15.75">
@@ -2781,11 +2856,9 @@
         <v>8</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E72" s="6" t="s">
-        <v>54</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E72" s="6"/>
       <c r="F72" s="4"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
@@ -2794,7 +2867,7 @@
       <c r="K72" s="4"/>
       <c r="L72" s="4"/>
       <c r="M72" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="73" spans="1:13" ht="15.75">
@@ -2808,11 +2881,9 @@
         <v>8</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E73" s="6" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E73" s="6"/>
       <c r="F73" s="4"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
@@ -2821,7 +2892,7 @@
       <c r="K73" s="4"/>
       <c r="L73" s="4"/>
       <c r="M73" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="74" spans="1:13" ht="15.75">
@@ -2835,11 +2906,9 @@
         <v>8</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="6" t="s">
-        <v>53</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="E74" s="6"/>
       <c r="F74" s="4"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
@@ -2848,7 +2917,7 @@
       <c r="K74" s="4"/>
       <c r="L74" s="4"/>
       <c r="M74" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="75" spans="1:13" ht="15.75">
@@ -2872,7 +2941,7 @@
       <c r="K75" s="4"/>
       <c r="L75" s="4"/>
       <c r="M75" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="76" spans="1:13" ht="15.75">
@@ -2896,7 +2965,7 @@
       <c r="K76" s="4"/>
       <c r="L76" s="4"/>
       <c r="M76" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="77" spans="1:13" ht="15.75">
@@ -2920,7 +2989,7 @@
       <c r="K77" s="4"/>
       <c r="L77" s="4"/>
       <c r="M77" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="78" spans="1:13" ht="15.75">
@@ -2937,7 +3006,7 @@
         <v>9</v>
       </c>
       <c r="E78" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F78" s="4"/>
       <c r="G78" s="4"/>
@@ -2947,9 +3016,11 @@
         <v>1</v>
       </c>
       <c r="K78" s="4"/>
-      <c r="L78" s="4"/>
+      <c r="L78" s="4">
+        <v>3</v>
+      </c>
       <c r="M78" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="15.75">
@@ -2971,9 +3042,11 @@
       <c r="I79" s="4"/>
       <c r="J79" s="4"/>
       <c r="K79" s="4"/>
-      <c r="L79" s="4"/>
+      <c r="L79" s="4">
+        <v>8</v>
+      </c>
       <c r="M79" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="15.75">
@@ -2995,9 +3068,11 @@
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
       <c r="K80" s="4"/>
-      <c r="L80" s="4"/>
+      <c r="L80" s="4">
+        <v>2</v>
+      </c>
       <c r="M80" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="15.75">
@@ -3022,9 +3097,11 @@
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
       <c r="K81" s="4"/>
-      <c r="L81" s="4"/>
+      <c r="L81" s="4">
+        <v>30</v>
+      </c>
       <c r="M81" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="15.75">
@@ -3041,7 +3118,9 @@
         <v>9</v>
       </c>
       <c r="F82" s="4"/>
-      <c r="G82" s="4"/>
+      <c r="G82" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H82" s="4" t="s">
         <v>52</v>
       </c>
@@ -3050,7 +3129,7 @@
       <c r="K82" s="4"/>
       <c r="L82" s="4"/>
       <c r="M82" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="15.75">
@@ -3072,9 +3151,11 @@
       <c r="I83" s="4"/>
       <c r="J83" s="4"/>
       <c r="K83" s="4"/>
-      <c r="L83" s="4"/>
+      <c r="L83" s="4">
+        <v>11</v>
+      </c>
       <c r="M83" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="15.75">
@@ -3096,9 +3177,11 @@
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
       <c r="K84" s="4"/>
-      <c r="L84" s="4"/>
+      <c r="L84" s="4">
+        <v>6</v>
+      </c>
       <c r="M84" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="15.75">
@@ -3123,9 +3206,11 @@
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
-      <c r="L85" s="4"/>
+      <c r="L85" s="4">
+        <v>5</v>
+      </c>
       <c r="M85" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="15.75">
@@ -3147,9 +3232,11 @@
       <c r="I86" s="4"/>
       <c r="J86" s="4"/>
       <c r="K86" s="4"/>
-      <c r="L86" s="4"/>
+      <c r="L86" s="4">
+        <v>25</v>
+      </c>
       <c r="M86" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="15.75">
@@ -3171,9 +3258,11 @@
       <c r="I87" s="4"/>
       <c r="J87" s="4"/>
       <c r="K87" s="4"/>
-      <c r="L87" s="4"/>
+      <c r="L87" s="4">
+        <v>19</v>
+      </c>
       <c r="M87" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="15.75">
@@ -3195,9 +3284,11 @@
       <c r="I88" s="4"/>
       <c r="J88" s="4"/>
       <c r="K88" s="4"/>
-      <c r="L88" s="4"/>
+      <c r="L88" s="4">
+        <v>9</v>
+      </c>
       <c r="M88" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="15.75">
@@ -3214,7 +3305,9 @@
         <v>9</v>
       </c>
       <c r="F89" s="4"/>
-      <c r="G89" s="4"/>
+      <c r="G89" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H89" s="4" t="s">
         <v>52</v>
       </c>
@@ -3223,7 +3316,7 @@
       <c r="K89" s="4"/>
       <c r="L89" s="4"/>
       <c r="M89" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="15.75">
@@ -3240,7 +3333,9 @@
         <v>9</v>
       </c>
       <c r="F90" s="4"/>
-      <c r="G90" s="4"/>
+      <c r="G90" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H90" s="4" t="s">
         <v>52</v>
       </c>
@@ -3251,7 +3346,7 @@
       <c r="K90" s="4"/>
       <c r="L90" s="4"/>
       <c r="M90" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="15.75">
@@ -3267,8 +3362,11 @@
       <c r="D91" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="L91" s="1">
+        <v>3</v>
+      </c>
       <c r="M91" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="15.75">
@@ -3284,8 +3382,11 @@
       <c r="D92" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="L92" s="1">
+        <v>4</v>
+      </c>
       <c r="M92" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="15.75">
@@ -3301,8 +3402,11 @@
       <c r="D93" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="L93" s="1">
+        <v>3</v>
+      </c>
       <c r="M93" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="15.75">
@@ -3318,8 +3422,11 @@
       <c r="D94" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="L94" s="1">
+        <v>5</v>
+      </c>
       <c r="M94" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="15.75">
@@ -3338,8 +3445,11 @@
       <c r="J95" s="1">
         <v>1</v>
       </c>
+      <c r="L95" s="1">
+        <v>2</v>
+      </c>
       <c r="M95" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="15.75">
@@ -3355,8 +3465,11 @@
       <c r="D96" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="L96" s="1">
+        <v>3</v>
+      </c>
       <c r="M96" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="97" spans="1:13" ht="15.75">
@@ -3376,9 +3489,11 @@
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
       <c r="K97" s="4"/>
-      <c r="L97" s="4"/>
+      <c r="L97" s="4">
+        <v>1</v>
+      </c>
       <c r="M97" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="98" spans="1:13" ht="15.75">
@@ -3394,6 +3509,9 @@
       <c r="D98" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="G98" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H98" s="4" t="s">
         <v>52</v>
       </c>
@@ -3404,7 +3522,7 @@
       <c r="K98" s="4"/>
       <c r="L98" s="4"/>
       <c r="M98" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="99" spans="1:13" ht="15.75">
@@ -3420,6 +3538,9 @@
       <c r="D99" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="G99" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H99" s="4" t="s">
         <v>52</v>
       </c>
@@ -3430,7 +3551,7 @@
       <c r="K99" s="4"/>
       <c r="L99" s="4"/>
       <c r="M99" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="100" spans="1:13" ht="15.75">
@@ -3446,6 +3567,9 @@
       <c r="D100" s="4" t="s">
         <v>9</v>
       </c>
+      <c r="G100" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H100" s="4" t="s">
         <v>52</v>
       </c>
@@ -3456,7 +3580,7 @@
       <c r="K100" s="4"/>
       <c r="L100" s="4"/>
       <c r="M100" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="101" spans="1:13" ht="15.75">
@@ -3471,6 +3595,9 @@
       </c>
       <c r="D101" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="H101" s="4" t="s">
         <v>52</v>
@@ -3480,7 +3607,7 @@
       <c r="K101" s="4"/>
       <c r="L101" s="4"/>
       <c r="M101" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="102" spans="1:13" ht="15.75">
@@ -3500,14 +3627,14 @@
         <v>43</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
       <c r="K102" s="4"/>
       <c r="L102" s="4"/>
       <c r="M102" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="103" spans="1:13" ht="15.75">
@@ -3522,6 +3649,9 @@
       </c>
       <c r="D103" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="G103" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="H103" s="4" t="s">
         <v>52</v>
@@ -3531,7 +3661,7 @@
       <c r="K103" s="4"/>
       <c r="L103" s="4"/>
       <c r="M103" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="104" spans="1:13" ht="15.75">
@@ -3546,6 +3676,9 @@
       </c>
       <c r="D104" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="G104" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="H104" s="4" t="s">
         <v>52</v>
@@ -3555,7 +3688,7 @@
       <c r="K104" s="4"/>
       <c r="L104" s="4"/>
       <c r="M104" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="105" spans="1:13" ht="15.75">
@@ -3570,6 +3703,9 @@
       </c>
       <c r="D105" s="1" t="s">
         <v>46</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="H105" s="4" t="s">
         <v>52</v>
@@ -3579,7 +3715,7 @@
       <c r="K105" s="4"/>
       <c r="L105" s="4"/>
       <c r="M105" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="106" spans="1:13" ht="15.75">
@@ -3594,6 +3730,9 @@
       </c>
       <c r="D106" s="1" t="s">
         <v>10</v>
+      </c>
+      <c r="G106" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="H106" s="4" t="s">
         <v>52</v>
@@ -3603,7 +3742,7 @@
       <c r="K106" s="4"/>
       <c r="L106" s="4"/>
       <c r="M106" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="107" spans="1:13" ht="15.75">
@@ -3619,6 +3758,9 @@
       <c r="D107" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="G107" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H107" s="4" t="s">
         <v>52</v>
       </c>
@@ -3629,7 +3771,7 @@
       <c r="K107" s="4"/>
       <c r="L107" s="4"/>
       <c r="M107" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="108" spans="1:13" ht="15.75">
@@ -3645,6 +3787,9 @@
       <c r="D108" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="G108" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H108" s="4" t="s">
         <v>52</v>
       </c>
@@ -3657,7 +3802,7 @@
       <c r="K108" s="4"/>
       <c r="L108" s="4"/>
       <c r="M108" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="109" spans="1:13" ht="15.75">
@@ -3673,8 +3818,11 @@
       <c r="D109" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="G109" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H109" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I109" s="4"/>
       <c r="J109" s="4">
@@ -3683,7 +3831,7 @@
       <c r="K109" s="4"/>
       <c r="L109" s="4"/>
       <c r="M109" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="110" spans="1:13" ht="15.75">
@@ -3699,8 +3847,11 @@
       <c r="D110" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="G110" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H110" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I110" s="4"/>
       <c r="J110" s="4">
@@ -3709,7 +3860,7 @@
       <c r="K110" s="4"/>
       <c r="L110" s="4"/>
       <c r="M110" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="111" spans="1:13" ht="15.75">
@@ -3725,8 +3876,11 @@
       <c r="D111" s="1" t="s">
         <v>38</v>
       </c>
+      <c r="G111" s="1" t="s">
+        <v>43</v>
+      </c>
       <c r="H111" s="4" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I111" s="4"/>
       <c r="J111" s="4">
@@ -3735,7 +3889,7 @@
       <c r="K111" s="4"/>
       <c r="L111" s="4"/>
       <c r="M111" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="112" spans="1:13" ht="15.75">
@@ -3750,6 +3904,9 @@
       </c>
       <c r="D112" s="1" t="s">
         <v>9</v>
+      </c>
+      <c r="G112" s="1" t="s">
+        <v>43</v>
       </c>
       <c r="H112" s="4" t="s">
         <v>52</v>
@@ -3761,7 +3918,7 @@
       <c r="K112" s="4"/>
       <c r="L112" s="4"/>
       <c r="M112" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="113" spans="1:13" ht="15.75">
@@ -3777,7 +3934,9 @@
       <c r="D113" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G113" s="4"/>
+      <c r="G113" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H113" s="4" t="s">
         <v>52</v>
       </c>
@@ -3786,7 +3945,7 @@
       <c r="K113" s="4"/>
       <c r="L113" s="4"/>
       <c r="M113" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="114" spans="1:13" ht="15.75">
@@ -3805,7 +3964,9 @@
       <c r="E114" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G114" s="4"/>
+      <c r="G114" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H114" s="4" t="s">
         <v>52</v>
       </c>
@@ -3816,7 +3977,7 @@
       <c r="K114" s="4"/>
       <c r="L114" s="4"/>
       <c r="M114" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="115" spans="1:13" ht="15.75">
@@ -3835,7 +3996,9 @@
       <c r="E115" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G115" s="4"/>
+      <c r="G115" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H115" s="4" t="s">
         <v>52</v>
       </c>
@@ -3846,7 +4009,7 @@
       <c r="K115" s="4"/>
       <c r="L115" s="4"/>
       <c r="M115" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="116" spans="1:13" ht="15.75">
@@ -3862,7 +4025,9 @@
       <c r="D116" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G116" s="4"/>
+      <c r="G116" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H116" s="4" t="s">
         <v>52</v>
       </c>
@@ -3873,7 +4038,7 @@
       <c r="K116" s="4"/>
       <c r="L116" s="4"/>
       <c r="M116" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="117" spans="1:13" ht="15.75">
@@ -3889,7 +4054,9 @@
       <c r="D117" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G117" s="4"/>
+      <c r="G117" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H117" s="4" t="s">
         <v>52</v>
       </c>
@@ -3898,7 +4065,7 @@
       <c r="K117" s="4"/>
       <c r="L117" s="4"/>
       <c r="M117" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="118" spans="1:13" ht="15.75">
@@ -3914,7 +4081,9 @@
       <c r="D118" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G118" s="4"/>
+      <c r="G118" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H118" s="4" t="s">
         <v>52</v>
       </c>
@@ -3923,7 +4092,7 @@
       <c r="K118" s="4"/>
       <c r="L118" s="4"/>
       <c r="M118" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="119" spans="1:13" ht="15.75">
@@ -3939,7 +4108,9 @@
       <c r="D119" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G119" s="4"/>
+      <c r="G119" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H119" s="4" t="s">
         <v>52</v>
       </c>
@@ -3948,7 +4119,7 @@
       <c r="K119" s="4"/>
       <c r="L119" s="4"/>
       <c r="M119" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="120" spans="1:13" ht="15.75">
@@ -3964,7 +4135,9 @@
       <c r="D120" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G120" s="4"/>
+      <c r="G120" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H120" s="4" t="s">
         <v>52</v>
       </c>
@@ -3973,7 +4146,7 @@
       <c r="K120" s="4"/>
       <c r="L120" s="4"/>
       <c r="M120" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="121" spans="1:13" ht="15.75">
@@ -3989,7 +4162,9 @@
       <c r="D121" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G121" s="4"/>
+      <c r="G121" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H121" s="4" t="s">
         <v>52</v>
       </c>
@@ -4000,7 +4175,7 @@
       <c r="K121" s="4"/>
       <c r="L121" s="4"/>
       <c r="M121" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="122" spans="1:13" ht="15.75">
@@ -4019,7 +4194,9 @@
       <c r="E122" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="G122" s="4"/>
+      <c r="G122" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H122" s="4" t="s">
         <v>52</v>
       </c>
@@ -4030,7 +4207,7 @@
       <c r="K122" s="4"/>
       <c r="L122" s="4"/>
       <c r="M122" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="123" spans="1:13" ht="15.75">
@@ -4046,7 +4223,9 @@
       <c r="D123" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G123" s="4"/>
+      <c r="G123" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H123" s="4" t="s">
         <v>52</v>
       </c>
@@ -4057,7 +4236,7 @@
       <c r="K123" s="4"/>
       <c r="L123" s="4"/>
       <c r="M123" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="124" spans="1:13" ht="15.75">
@@ -4073,7 +4252,9 @@
       <c r="D124" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G124" s="4"/>
+      <c r="G124" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H124" s="4" t="s">
         <v>52</v>
       </c>
@@ -4084,7 +4265,7 @@
       <c r="K124" s="4"/>
       <c r="L124" s="4"/>
       <c r="M124" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="125" spans="1:13" ht="15.75">
@@ -4100,7 +4281,9 @@
       <c r="D125" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G125" s="4"/>
+      <c r="G125" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H125" s="4" t="s">
         <v>52</v>
       </c>
@@ -4111,7 +4294,7 @@
       <c r="K125" s="4"/>
       <c r="L125" s="4"/>
       <c r="M125" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="126" spans="1:13" ht="15.75">
@@ -4127,7 +4310,9 @@
       <c r="D126" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G126" s="4"/>
+      <c r="G126" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H126" s="4" t="s">
         <v>52</v>
       </c>
@@ -4136,7 +4321,7 @@
       <c r="K126" s="4"/>
       <c r="L126" s="4"/>
       <c r="M126" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="127" spans="1:13" ht="15.75">
@@ -4152,7 +4337,9 @@
       <c r="D127" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G127" s="4"/>
+      <c r="G127" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H127" s="4" t="s">
         <v>52</v>
       </c>
@@ -4161,7 +4348,7 @@
       <c r="K127" s="4"/>
       <c r="L127" s="4"/>
       <c r="M127" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="128" spans="1:13" ht="15.75">
@@ -4177,16 +4364,18 @@
       <c r="D128" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G128" s="4"/>
+      <c r="G128" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H128" s="4" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I128" s="4"/>
       <c r="J128" s="4"/>
       <c r="K128" s="4"/>
       <c r="L128" s="4"/>
       <c r="M128" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="129" spans="1:13" ht="15.75">
@@ -4202,7 +4391,9 @@
       <c r="D129" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G129" s="4"/>
+      <c r="G129" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H129" s="4" t="s">
         <v>52</v>
       </c>
@@ -4211,7 +4402,7 @@
       <c r="K129" s="4"/>
       <c r="L129" s="4"/>
       <c r="M129" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="130" spans="1:13" ht="15.75">
@@ -4227,7 +4418,9 @@
       <c r="D130" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G130" s="4"/>
+      <c r="G130" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H130" s="4" t="s">
         <v>52</v>
       </c>
@@ -4236,7 +4429,7 @@
       <c r="K130" s="4"/>
       <c r="L130" s="4"/>
       <c r="M130" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="131" spans="1:13" ht="15.75">
@@ -4252,7 +4445,9 @@
       <c r="D131" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G131" s="4"/>
+      <c r="G131" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H131" s="4" t="s">
         <v>52</v>
       </c>
@@ -4261,7 +4456,7 @@
       <c r="K131" s="4"/>
       <c r="L131" s="4"/>
       <c r="M131" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="132" spans="1:13" ht="15.75">
@@ -4277,7 +4472,9 @@
       <c r="D132" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G132" s="4"/>
+      <c r="G132" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H132" s="4" t="s">
         <v>52</v>
       </c>
@@ -4286,7 +4483,7 @@
       <c r="K132" s="4"/>
       <c r="L132" s="4"/>
       <c r="M132" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="133" spans="1:13" ht="15.75">
@@ -4311,9 +4508,11 @@
         <v>1</v>
       </c>
       <c r="K133" s="4"/>
-      <c r="L133" s="4"/>
+      <c r="L133" s="4">
+        <v>14</v>
+      </c>
       <c r="M133" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="134" spans="1:13" ht="15.75">
@@ -4334,9 +4533,11 @@
       <c r="I134" s="4"/>
       <c r="J134" s="4"/>
       <c r="K134" s="4"/>
-      <c r="L134" s="4"/>
+      <c r="L134" s="4">
+        <v>6</v>
+      </c>
       <c r="M134" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="135" spans="1:13" ht="15.75">
@@ -4357,9 +4558,11 @@
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
       <c r="K135" s="4"/>
-      <c r="L135" s="4"/>
+      <c r="L135" s="4">
+        <v>12</v>
+      </c>
       <c r="M135" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="136" spans="1:13" ht="15.75">
@@ -4383,9 +4586,11 @@
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
       <c r="K136" s="4"/>
-      <c r="L136" s="4"/>
+      <c r="L136" s="4">
+        <v>4</v>
+      </c>
       <c r="M136" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="137" spans="1:13" ht="15.75">
@@ -4406,9 +4611,11 @@
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
       <c r="K137" s="4"/>
-      <c r="L137" s="4"/>
+      <c r="L137" s="4">
+        <v>1</v>
+      </c>
       <c r="M137" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="138" spans="1:13" ht="15.75">
@@ -4431,9 +4638,11 @@
         <v>1</v>
       </c>
       <c r="K138" s="4"/>
-      <c r="L138" s="4"/>
+      <c r="L138" s="4">
+        <v>1</v>
+      </c>
       <c r="M138" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="139" spans="1:13" ht="15.75">
@@ -4456,9 +4665,11 @@
         <v>1</v>
       </c>
       <c r="K139" s="4"/>
-      <c r="L139" s="4"/>
+      <c r="L139" s="4">
+        <v>21</v>
+      </c>
       <c r="M139" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="140" spans="1:13" ht="15.75">
@@ -4483,9 +4694,11 @@
         <v>1</v>
       </c>
       <c r="K140" s="4"/>
-      <c r="L140" s="4"/>
+      <c r="L140" s="4">
+        <v>1</v>
+      </c>
       <c r="M140" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="141" spans="1:13" ht="15.75">
@@ -4506,9 +4719,11 @@
       <c r="I141" s="4"/>
       <c r="J141" s="4"/>
       <c r="K141" s="4"/>
-      <c r="L141" s="4"/>
+      <c r="L141" s="4">
+        <v>1</v>
+      </c>
       <c r="M141" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="142" spans="1:13" ht="15.75">
@@ -4524,7 +4739,9 @@
       <c r="D142" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G142" s="4"/>
+      <c r="G142" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H142" s="4" t="s">
         <v>52</v>
       </c>
@@ -4533,7 +4750,7 @@
       <c r="K142" s="4"/>
       <c r="L142" s="4"/>
       <c r="M142" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="143" spans="1:13" ht="15.75">
@@ -4549,7 +4766,9 @@
       <c r="D143" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G143" s="4"/>
+      <c r="G143" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H143" s="4" t="s">
         <v>52</v>
       </c>
@@ -4558,7 +4777,7 @@
       <c r="K143" s="4"/>
       <c r="L143" s="4"/>
       <c r="M143" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="144" spans="1:13" ht="15.75">
@@ -4574,7 +4793,9 @@
       <c r="D144" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G144" s="4"/>
+      <c r="G144" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H144" s="4" t="s">
         <v>52</v>
       </c>
@@ -4583,7 +4804,7 @@
       <c r="K144" s="4"/>
       <c r="L144" s="4"/>
       <c r="M144" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="145" spans="1:13" ht="15.75">
@@ -4599,7 +4820,9 @@
       <c r="D145" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G145" s="4"/>
+      <c r="G145" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H145" s="4" t="s">
         <v>52</v>
       </c>
@@ -4608,7 +4831,7 @@
       <c r="K145" s="4"/>
       <c r="L145" s="4"/>
       <c r="M145" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="146" spans="1:13" ht="15.75">
@@ -4629,9 +4852,11 @@
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
       <c r="K146" s="4"/>
-      <c r="L146" s="4"/>
+      <c r="L146" s="4">
+        <v>2</v>
+      </c>
       <c r="M146" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="147" spans="1:13" ht="15.75">
@@ -4652,9 +4877,11 @@
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
       <c r="K147" s="4"/>
-      <c r="L147" s="4"/>
+      <c r="L147" s="4">
+        <v>8</v>
+      </c>
       <c r="M147" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="148" spans="1:13" ht="15.75">
@@ -4675,9 +4902,11 @@
       <c r="I148" s="4"/>
       <c r="J148" s="4"/>
       <c r="K148" s="4"/>
-      <c r="L148" s="4"/>
+      <c r="L148" s="4">
+        <v>1</v>
+      </c>
       <c r="M148" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="149" spans="1:13" ht="15.75">
@@ -4693,7 +4922,9 @@
       <c r="D149" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G149" s="4"/>
+      <c r="G149" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H149" s="4" t="s">
         <v>52</v>
       </c>
@@ -4702,7 +4933,7 @@
       <c r="K149" s="4"/>
       <c r="L149" s="4"/>
       <c r="M149" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="150" spans="1:13" ht="15.75">
@@ -4718,7 +4949,9 @@
       <c r="D150" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G150" s="4"/>
+      <c r="G150" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H150" s="4" t="s">
         <v>52</v>
       </c>
@@ -4727,7 +4960,7 @@
       <c r="K150" s="4"/>
       <c r="L150" s="4"/>
       <c r="M150" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="151" spans="1:13" ht="15.75">
@@ -4743,7 +4976,9 @@
       <c r="D151" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G151" s="4"/>
+      <c r="G151" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H151" s="4" t="s">
         <v>52</v>
       </c>
@@ -4752,7 +4987,7 @@
       <c r="K151" s="4"/>
       <c r="L151" s="4"/>
       <c r="M151" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="152" spans="1:13" ht="15.75">
@@ -4768,7 +5003,9 @@
       <c r="D152" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G152" s="4"/>
+      <c r="G152" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H152" s="4" t="s">
         <v>52</v>
       </c>
@@ -4777,7 +5014,7 @@
       <c r="K152" s="4"/>
       <c r="L152" s="4"/>
       <c r="M152" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="153" spans="1:13" ht="15.75">
@@ -4794,7 +5031,7 @@
         <v>38</v>
       </c>
       <c r="E153" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G153" s="4" t="s">
         <v>43</v>
@@ -4809,7 +5046,7 @@
       <c r="K153" s="4"/>
       <c r="L153" s="4"/>
       <c r="M153" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="154" spans="1:13" ht="15.75">
@@ -4830,9 +5067,11 @@
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
       <c r="K154" s="4"/>
-      <c r="L154" s="4"/>
+      <c r="L154" s="4">
+        <v>1</v>
+      </c>
       <c r="M154" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="155" spans="1:13" ht="15.75">
@@ -4853,9 +5092,11 @@
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
       <c r="K155" s="4"/>
-      <c r="L155" s="4"/>
+      <c r="L155" s="4">
+        <v>4</v>
+      </c>
       <c r="M155" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="156" spans="1:13" ht="15.75">
@@ -4876,9 +5117,11 @@
       <c r="I156" s="4"/>
       <c r="J156" s="4"/>
       <c r="K156" s="4"/>
-      <c r="L156" s="4"/>
+      <c r="L156" s="4">
+        <v>5</v>
+      </c>
       <c r="M156" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="157" spans="1:13" ht="15.75">
@@ -4899,9 +5142,11 @@
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
       <c r="K157" s="4"/>
-      <c r="L157" s="4"/>
+      <c r="L157" s="4">
+        <v>1</v>
+      </c>
       <c r="M157" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="158" spans="1:13" ht="15.75">
@@ -4917,7 +5162,9 @@
       <c r="D158" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G158" s="4"/>
+      <c r="G158" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H158" s="4" t="s">
         <v>52</v>
       </c>
@@ -4926,7 +5173,7 @@
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
       <c r="M158" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="159" spans="1:13" ht="15.75">
@@ -4942,16 +5189,18 @@
       <c r="D159" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G159" s="4"/>
+      <c r="G159" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H159" s="4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
       <c r="K159" s="4"/>
       <c r="L159" s="4"/>
       <c r="M159" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="160" spans="1:13" ht="15.75">
@@ -4967,7 +5216,9 @@
       <c r="D160" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G160" s="4"/>
+      <c r="G160" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H160" s="4" t="s">
         <v>52</v>
       </c>
@@ -4976,7 +5227,7 @@
       <c r="K160" s="4"/>
       <c r="L160" s="4"/>
       <c r="M160" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="161" spans="1:13" ht="15.75">
@@ -4992,7 +5243,9 @@
       <c r="D161" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="G161" s="4"/>
+      <c r="G161" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H161" s="4" t="s">
         <v>52</v>
       </c>
@@ -5001,7 +5254,7 @@
       <c r="K161" s="4"/>
       <c r="L161" s="4"/>
       <c r="M161" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="162" spans="1:13" ht="15.75">
@@ -5022,9 +5275,11 @@
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
-      <c r="L162" s="4"/>
+      <c r="L162" s="4">
+        <v>5</v>
+      </c>
       <c r="M162" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="163" spans="1:13" ht="15.75">
@@ -5047,7 +5302,7 @@
       <c r="K163" s="4"/>
       <c r="L163" s="4"/>
       <c r="M163" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="164" spans="1:13" ht="15.75">
@@ -5070,7 +5325,7 @@
       <c r="K164" s="4"/>
       <c r="L164" s="4"/>
       <c r="M164" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="165" spans="1:13" ht="15.75">
@@ -5093,7 +5348,7 @@
       <c r="K165" s="4"/>
       <c r="L165" s="4"/>
       <c r="M165" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="166" spans="1:13" ht="15.75">
@@ -5116,7 +5371,7 @@
       <c r="K166" s="4"/>
       <c r="L166" s="4"/>
       <c r="M166" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="167" spans="1:13" ht="15.75">
@@ -5141,9 +5396,11 @@
         <v>1</v>
       </c>
       <c r="K167" s="4"/>
-      <c r="L167" s="4"/>
+      <c r="L167" s="4">
+        <v>3</v>
+      </c>
       <c r="M167" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="168" spans="1:13" ht="15.75">
@@ -5166,9 +5423,11 @@
         <v>1</v>
       </c>
       <c r="K168" s="4"/>
-      <c r="L168" s="4"/>
+      <c r="L168" s="4">
+        <v>2</v>
+      </c>
       <c r="M168" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="169" spans="1:13" ht="15.75">
@@ -5191,9 +5450,11 @@
         <v>1</v>
       </c>
       <c r="K169" s="4"/>
-      <c r="L169" s="4"/>
+      <c r="L169" s="4">
+        <v>2</v>
+      </c>
       <c r="M169" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="170" spans="1:13" ht="15.75">
@@ -5210,7 +5471,7 @@
         <v>9</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G170" s="4"/>
       <c r="H170" s="4"/>
@@ -5219,9 +5480,11 @@
         <v>1</v>
       </c>
       <c r="K170" s="4"/>
-      <c r="L170" s="4"/>
+      <c r="L170" s="4">
+        <v>2</v>
+      </c>
       <c r="M170" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="171" spans="1:13" ht="15.75">
@@ -5242,9 +5505,11 @@
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
       <c r="K171" s="4"/>
-      <c r="L171" s="4"/>
+      <c r="L171" s="4">
+        <v>7</v>
+      </c>
       <c r="M171" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="172" spans="1:13" ht="15.75">
@@ -5268,9 +5533,11 @@
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
       <c r="K172" s="4"/>
-      <c r="L172" s="4"/>
+      <c r="L172" s="4">
+        <v>8</v>
+      </c>
       <c r="M172" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="173" spans="1:13" ht="15.75">
@@ -5291,9 +5558,11 @@
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
       <c r="K173" s="4"/>
-      <c r="L173" s="4"/>
+      <c r="L173" s="4">
+        <v>5</v>
+      </c>
       <c r="M173" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="174" spans="1:13" ht="15.75">
@@ -5314,9 +5583,11 @@
       <c r="I174" s="4"/>
       <c r="J174" s="4"/>
       <c r="K174" s="4"/>
-      <c r="L174" s="4"/>
+      <c r="L174" s="4">
+        <v>9</v>
+      </c>
       <c r="M174" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="175" spans="1:13" ht="15.75">
@@ -5337,9 +5608,11 @@
       <c r="I175" s="4"/>
       <c r="J175" s="4"/>
       <c r="K175" s="4"/>
-      <c r="L175" s="4"/>
+      <c r="L175" s="4">
+        <v>20</v>
+      </c>
       <c r="M175" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="176" spans="1:13" ht="15.75">
@@ -5360,9 +5633,11 @@
       <c r="I176" s="4"/>
       <c r="J176" s="4"/>
       <c r="K176" s="4"/>
-      <c r="L176" s="4"/>
+      <c r="L176" s="4">
+        <v>13</v>
+      </c>
       <c r="M176" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="177" spans="1:13" ht="15.75">
@@ -5384,9 +5659,11 @@
       <c r="I177" s="4"/>
       <c r="J177" s="4"/>
       <c r="K177" s="4"/>
-      <c r="L177" s="4"/>
+      <c r="L177" s="4">
+        <v>25</v>
+      </c>
       <c r="M177" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="178" spans="1:13" ht="15.75">
@@ -5408,9 +5685,11 @@
       <c r="I178" s="4"/>
       <c r="J178" s="4"/>
       <c r="K178" s="4"/>
-      <c r="L178" s="4"/>
+      <c r="L178" s="4">
+        <v>3</v>
+      </c>
       <c r="M178" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="179" spans="1:13" ht="15.75">
@@ -5432,9 +5711,11 @@
       <c r="I179" s="4"/>
       <c r="J179" s="4"/>
       <c r="K179" s="4"/>
-      <c r="L179" s="4"/>
+      <c r="L179" s="4">
+        <v>9</v>
+      </c>
       <c r="M179" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="180" spans="1:13" ht="15.75">
@@ -5459,9 +5740,11 @@
       <c r="I180" s="4"/>
       <c r="J180" s="4"/>
       <c r="K180" s="4"/>
-      <c r="L180" s="4"/>
+      <c r="L180" s="4">
+        <v>13</v>
+      </c>
       <c r="M180" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="181" spans="1:13" ht="15.75">
@@ -5485,9 +5768,11 @@
       </c>
       <c r="J181" s="4"/>
       <c r="K181" s="4"/>
-      <c r="L181" s="4"/>
+      <c r="L181" s="4">
+        <v>17</v>
+      </c>
       <c r="M181" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="182" spans="1:13" ht="15.75">
@@ -5509,9 +5794,11 @@
       <c r="I182" s="4"/>
       <c r="J182" s="4"/>
       <c r="K182" s="4"/>
-      <c r="L182" s="4"/>
+      <c r="L182" s="4">
+        <v>8</v>
+      </c>
       <c r="M182" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="183" spans="1:13" ht="15.75">
@@ -5533,9 +5820,11 @@
       <c r="I183" s="4"/>
       <c r="J183" s="4"/>
       <c r="K183" s="4"/>
-      <c r="L183" s="4"/>
+      <c r="L183" s="4">
+        <v>1</v>
+      </c>
       <c r="M183" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="184" spans="1:13" ht="15.75">
@@ -5557,9 +5846,11 @@
       <c r="I184" s="4"/>
       <c r="J184" s="4"/>
       <c r="K184" s="4"/>
-      <c r="L184" s="4"/>
+      <c r="L184" s="4">
+        <v>2</v>
+      </c>
       <c r="M184" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="185" spans="1:13" ht="15.75">
@@ -5581,9 +5872,11 @@
       <c r="I185" s="4"/>
       <c r="J185" s="4"/>
       <c r="K185" s="4"/>
-      <c r="L185" s="4"/>
+      <c r="L185" s="4">
+        <v>2</v>
+      </c>
       <c r="M185" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="186" spans="1:13" ht="15.75">
@@ -5605,9 +5898,11 @@
       <c r="I186" s="4"/>
       <c r="J186" s="4"/>
       <c r="K186" s="4"/>
-      <c r="L186" s="4"/>
+      <c r="L186" s="4">
+        <v>6</v>
+      </c>
       <c r="M186" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="187" spans="1:13" ht="15.75">
@@ -5629,9 +5924,11 @@
       <c r="I187" s="4"/>
       <c r="J187" s="4"/>
       <c r="K187" s="4"/>
-      <c r="L187" s="4"/>
+      <c r="L187" s="4">
+        <v>3</v>
+      </c>
       <c r="M187" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="188" spans="1:13" ht="15.75">
@@ -5653,9 +5950,11 @@
       <c r="I188" s="4"/>
       <c r="J188" s="4"/>
       <c r="K188" s="4"/>
-      <c r="L188" s="4"/>
+      <c r="L188" s="4">
+        <v>3</v>
+      </c>
       <c r="M188" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="189" spans="1:13" ht="15.75">
@@ -5677,9 +5976,11 @@
       <c r="I189" s="4"/>
       <c r="J189" s="4"/>
       <c r="K189" s="4"/>
-      <c r="L189" s="4"/>
+      <c r="L189" s="4">
+        <v>1</v>
+      </c>
       <c r="M189" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="190" spans="1:13" ht="15.75">
@@ -5701,9 +6002,11 @@
       <c r="I190" s="4"/>
       <c r="J190" s="4"/>
       <c r="K190" s="4"/>
-      <c r="L190" s="4"/>
+      <c r="L190" s="4">
+        <v>2</v>
+      </c>
       <c r="M190" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="191" spans="1:13" ht="15.75">
@@ -5727,7 +6030,7 @@
       <c r="K191" s="4"/>
       <c r="L191" s="4"/>
       <c r="M191" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="192" spans="1:13" ht="15.75">
@@ -5751,7 +6054,7 @@
       <c r="K192" s="4"/>
       <c r="L192" s="4"/>
       <c r="M192" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="193" spans="1:13" ht="15.75">
@@ -5767,16 +6070,20 @@
       <c r="D193" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G193" s="4"/>
+      <c r="G193" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H193" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
-      <c r="L193" s="4"/>
+      <c r="L193" s="4">
+        <v>1</v>
+      </c>
       <c r="M193" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="194" spans="1:13" ht="15.75">
@@ -5792,18 +6099,22 @@
       <c r="D194" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G194" s="4"/>
+      <c r="G194" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H194" s="4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I194" s="4"/>
       <c r="J194" s="4"/>
       <c r="K194" s="4">
         <v>1</v>
       </c>
-      <c r="L194" s="4"/>
+      <c r="L194" s="4">
+        <v>1</v>
+      </c>
       <c r="M194" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="195" spans="1:13" ht="15.75">
@@ -5824,9 +6135,11 @@
       <c r="I195" s="4"/>
       <c r="J195" s="4"/>
       <c r="K195" s="4"/>
-      <c r="L195" s="4"/>
+      <c r="L195" s="4">
+        <v>2</v>
+      </c>
       <c r="M195" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="196" spans="1:13" ht="15.75">
@@ -5849,9 +6162,11 @@
         <v>1</v>
       </c>
       <c r="K196" s="4"/>
-      <c r="L196" s="4"/>
+      <c r="L196" s="4">
+        <v>5</v>
+      </c>
       <c r="M196" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="197" spans="1:13" ht="15.75">
@@ -5876,7 +6191,7 @@
       <c r="K197" s="4"/>
       <c r="L197" s="4"/>
       <c r="M197" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="198" spans="1:13" ht="15.75">
@@ -5899,7 +6214,7 @@
       <c r="K198" s="4"/>
       <c r="L198" s="4"/>
       <c r="M198" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="199" spans="1:13" ht="15.75">
@@ -5924,7 +6239,7 @@
       <c r="K199" s="4"/>
       <c r="L199" s="4"/>
       <c r="M199" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="200" spans="1:13" ht="15.75">
@@ -5947,7 +6262,7 @@
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
       <c r="M200" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="201" spans="1:13" ht="15.75">
@@ -5970,7 +6285,7 @@
       <c r="K201" s="4"/>
       <c r="L201" s="4"/>
       <c r="M201" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="202" spans="1:13" ht="15.75">
@@ -5993,7 +6308,7 @@
       <c r="K202" s="4"/>
       <c r="L202" s="4"/>
       <c r="M202" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="203" spans="1:13" ht="15.75">
@@ -6016,7 +6331,7 @@
       <c r="K203" s="4"/>
       <c r="L203" s="4"/>
       <c r="M203" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="204" spans="1:13" ht="15.75">
@@ -6041,7 +6356,7 @@
       <c r="K204" s="4"/>
       <c r="L204" s="4"/>
       <c r="M204" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="205" spans="1:13" ht="15.75">
@@ -6066,7 +6381,7 @@
       </c>
       <c r="L205" s="4"/>
       <c r="M205" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="206" spans="1:13" ht="15.75">
@@ -6089,7 +6404,7 @@
       <c r="K206" s="4"/>
       <c r="L206" s="4"/>
       <c r="M206" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="207" spans="1:13" ht="15.75">
@@ -6112,7 +6427,7 @@
       <c r="K207" s="4"/>
       <c r="L207" s="4"/>
       <c r="M207" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="208" spans="1:13" ht="15.75">
@@ -6135,7 +6450,7 @@
       <c r="K208" s="4"/>
       <c r="L208" s="4"/>
       <c r="M208" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="209" spans="1:13" ht="15.75">
@@ -6158,7 +6473,7 @@
       <c r="K209" s="4"/>
       <c r="L209" s="4"/>
       <c r="M209" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="210" spans="1:13" ht="15.75">
@@ -6184,7 +6499,7 @@
       </c>
       <c r="L210" s="4"/>
       <c r="M210" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="211" spans="1:13" ht="15.75">
@@ -6210,7 +6525,7 @@
       </c>
       <c r="L211" s="4"/>
       <c r="M211" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="212" spans="1:13" ht="15.75">
@@ -6236,7 +6551,7 @@
       </c>
       <c r="L212" s="4"/>
       <c r="M212" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="213" spans="1:13" ht="15.75">
@@ -6261,7 +6576,7 @@
       </c>
       <c r="L213" s="4"/>
       <c r="M213" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="214" spans="1:13" ht="15.75">
@@ -6286,7 +6601,7 @@
       </c>
       <c r="L214" s="4"/>
       <c r="M214" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="215" spans="1:13" ht="15.75">
@@ -6309,7 +6624,7 @@
       <c r="K215" s="4"/>
       <c r="L215" s="4"/>
       <c r="M215" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="216" spans="1:13" ht="15.75">
@@ -6332,7 +6647,7 @@
       <c r="K216" s="4"/>
       <c r="L216" s="4"/>
       <c r="M216" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="217" spans="1:13" ht="15.75">
@@ -6355,7 +6670,7 @@
       <c r="K217" s="4"/>
       <c r="L217" s="4"/>
       <c r="M217" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="218" spans="1:13" ht="15.75">
@@ -6381,7 +6696,7 @@
       <c r="K218" s="4"/>
       <c r="L218" s="4"/>
       <c r="M218" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="219" spans="1:13" ht="15.75">
@@ -6404,7 +6719,7 @@
       <c r="K219" s="4"/>
       <c r="L219" s="4"/>
       <c r="M219" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="220" spans="1:13" ht="15.75">
@@ -6427,7 +6742,7 @@
       <c r="K220" s="4"/>
       <c r="L220" s="4"/>
       <c r="M220" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="221" spans="1:13" ht="15.75">
@@ -6452,7 +6767,7 @@
       <c r="K221" s="4"/>
       <c r="L221" s="4"/>
       <c r="M221" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="222" spans="1:13" ht="15.75">
@@ -6475,7 +6790,7 @@
       <c r="K222" s="4"/>
       <c r="L222" s="4"/>
       <c r="M222" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="223" spans="1:13" ht="15.75">
@@ -6500,7 +6815,7 @@
       <c r="K223" s="4"/>
       <c r="L223" s="4"/>
       <c r="M223" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="224" spans="1:13" ht="15.75">
@@ -6525,7 +6840,7 @@
       <c r="K224" s="4"/>
       <c r="L224" s="4"/>
       <c r="M224" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="225" spans="1:13" ht="15.75">
@@ -6548,7 +6863,7 @@
       <c r="K225" s="4"/>
       <c r="L225" s="4"/>
       <c r="M225" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="226" spans="1:13" ht="15.75">
@@ -6571,7 +6886,7 @@
       <c r="K226" s="4"/>
       <c r="L226" s="4"/>
       <c r="M226" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="227" spans="1:13" ht="15.75">
@@ -6594,7 +6909,7 @@
       <c r="K227" s="4"/>
       <c r="L227" s="4"/>
       <c r="M227" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="228" spans="1:13" ht="15.75">
@@ -6617,7 +6932,7 @@
       <c r="K228" s="4"/>
       <c r="L228" s="4"/>
       <c r="M228" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="229" spans="1:13" ht="15.75">
@@ -6640,7 +6955,7 @@
       <c r="K229" s="4"/>
       <c r="L229" s="4"/>
       <c r="M229" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="230" spans="1:13" ht="15.75">
@@ -6665,7 +6980,7 @@
       <c r="K230" s="4"/>
       <c r="L230" s="4"/>
       <c r="M230" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="231" spans="1:13" ht="15.75">
@@ -6688,7 +7003,7 @@
       <c r="K231" s="4"/>
       <c r="L231" s="4"/>
       <c r="M231" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="232" spans="1:13" ht="15.75">
@@ -6711,7 +7026,7 @@
       <c r="K232" s="4"/>
       <c r="L232" s="4"/>
       <c r="M232" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="233" spans="1:13" ht="15.75">
@@ -6734,7 +7049,7 @@
       <c r="K233" s="4"/>
       <c r="L233" s="4"/>
       <c r="M233" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="234" spans="1:13" ht="15.75">
@@ -6757,7 +7072,7 @@
       <c r="K234" s="4"/>
       <c r="L234" s="4"/>
       <c r="M234" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="235" spans="1:13" ht="15.75">
@@ -6780,7 +7095,7 @@
       <c r="K235" s="4"/>
       <c r="L235" s="4"/>
       <c r="M235" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="236" spans="1:13" ht="15.75">
@@ -6803,7 +7118,7 @@
       <c r="K236" s="4"/>
       <c r="L236" s="4"/>
       <c r="M236" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="237" spans="1:13" ht="15.75">
@@ -6826,7 +7141,7 @@
       <c r="K237" s="4"/>
       <c r="L237" s="4"/>
       <c r="M237" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="238" spans="1:13" ht="15.75">
@@ -6849,7 +7164,7 @@
       <c r="K238" s="4"/>
       <c r="L238" s="4"/>
       <c r="M238" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="239" spans="1:13" ht="15.75">
@@ -6874,7 +7189,7 @@
       </c>
       <c r="L239" s="4"/>
       <c r="M239" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="240" spans="1:13" ht="15.75">
@@ -6899,7 +7214,7 @@
       </c>
       <c r="L240" s="4"/>
       <c r="M240" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="241" spans="1:13" ht="15.75">
@@ -6922,7 +7237,7 @@
       <c r="K241" s="4"/>
       <c r="L241" s="4"/>
       <c r="M241" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="242" spans="1:13" ht="15.75">
@@ -6945,7 +7260,7 @@
       <c r="K242" s="4"/>
       <c r="L242" s="4"/>
       <c r="M242" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="243" spans="1:13" ht="15.75">
@@ -6968,7 +7283,7 @@
       <c r="K243" s="4"/>
       <c r="L243" s="4"/>
       <c r="M243" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="244" spans="1:13" ht="15.75">
@@ -6991,7 +7306,7 @@
       <c r="K244" s="4"/>
       <c r="L244" s="4"/>
       <c r="M244" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="245" spans="1:13" ht="15.75">
@@ -7007,7 +7322,9 @@
       <c r="D245" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G245" s="4"/>
+      <c r="G245" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H245" s="4" t="s">
         <v>52</v>
       </c>
@@ -7016,7 +7333,7 @@
       <c r="K245" s="4"/>
       <c r="L245" s="4"/>
       <c r="M245" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="246" spans="1:13" ht="15.75">
@@ -7039,7 +7356,7 @@
       <c r="K246" s="4"/>
       <c r="L246" s="4"/>
       <c r="M246" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="247" spans="1:13" ht="15.75">
@@ -7055,7 +7372,9 @@
       <c r="D247" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G247" s="4"/>
+      <c r="G247" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H247" s="4" t="s">
         <v>52</v>
       </c>
@@ -7064,7 +7383,7 @@
       <c r="K247" s="4"/>
       <c r="L247" s="4"/>
       <c r="M247" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="248" spans="1:13" ht="15.75">
@@ -7090,7 +7409,7 @@
       <c r="K248" s="4"/>
       <c r="L248" s="4"/>
       <c r="M248" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="249" spans="1:13" ht="15.75">
@@ -7115,7 +7434,7 @@
       <c r="K249" s="4"/>
       <c r="L249" s="4"/>
       <c r="M249" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="250" spans="1:13" ht="15.75">
@@ -7138,7 +7457,7 @@
       <c r="K250" s="4"/>
       <c r="L250" s="4"/>
       <c r="M250" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="251" spans="1:13" ht="15.75">
@@ -7161,7 +7480,7 @@
       <c r="K251" s="4"/>
       <c r="L251" s="4"/>
       <c r="M251" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="252" spans="1:13" ht="15.75">
@@ -7186,7 +7505,7 @@
       <c r="K252" s="4"/>
       <c r="L252" s="4"/>
       <c r="M252" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="253" spans="1:13" ht="15.75">
@@ -7209,7 +7528,7 @@
       <c r="K253" s="4"/>
       <c r="L253" s="4"/>
       <c r="M253" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="254" spans="1:13" ht="15.75">
@@ -7235,7 +7554,7 @@
       <c r="K254" s="4"/>
       <c r="L254" s="4"/>
       <c r="M254" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="255" spans="1:13" ht="15.75">
@@ -7258,7 +7577,7 @@
       <c r="K255" s="4"/>
       <c r="L255" s="4"/>
       <c r="M255" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="256" spans="1:13" ht="15.75">
@@ -7283,7 +7602,7 @@
       <c r="K256" s="4"/>
       <c r="L256" s="4"/>
       <c r="M256" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="257" spans="1:13" ht="15.75">
@@ -7306,7 +7625,7 @@
       <c r="K257" s="4"/>
       <c r="L257" s="4"/>
       <c r="M257" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="258" spans="1:13" ht="15.75">
@@ -7329,7 +7648,7 @@
       <c r="K258" s="4"/>
       <c r="L258" s="4"/>
       <c r="M258" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="259" spans="1:13" ht="15.75">
@@ -7345,16 +7664,18 @@
       <c r="D259" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G259" s="4"/>
+      <c r="G259" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H259" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I259" s="4"/>
       <c r="J259" s="4"/>
       <c r="K259" s="4"/>
       <c r="L259" s="4"/>
       <c r="M259" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="260" spans="1:13" ht="15.75">
@@ -7377,7 +7698,7 @@
       <c r="K260" s="4"/>
       <c r="L260" s="4"/>
       <c r="M260" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="261" spans="1:13" ht="15.75">
@@ -7393,7 +7714,9 @@
       <c r="D261" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G261" s="4"/>
+      <c r="G261" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H261" s="4" t="s">
         <v>52</v>
       </c>
@@ -7402,7 +7725,7 @@
       <c r="K261" s="4"/>
       <c r="L261" s="4"/>
       <c r="M261" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="262" spans="1:13" ht="15.75">
@@ -7425,7 +7748,7 @@
       <c r="K262" s="4"/>
       <c r="L262" s="4"/>
       <c r="M262" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="263" spans="1:13" ht="15.75">
@@ -7448,7 +7771,7 @@
       <c r="K263" s="4"/>
       <c r="L263" s="4"/>
       <c r="M263" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="264" spans="1:13" ht="15.75">
@@ -7471,7 +7794,7 @@
       <c r="K264" s="4"/>
       <c r="L264" s="4"/>
       <c r="M264" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="265" spans="1:13" ht="15.75">
@@ -7487,7 +7810,9 @@
       <c r="D265" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G265" s="4"/>
+      <c r="G265" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H265" s="4" t="s">
         <v>52</v>
       </c>
@@ -7496,7 +7821,7 @@
       <c r="K265" s="4"/>
       <c r="L265" s="4"/>
       <c r="M265" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="266" spans="1:13" ht="15.75">
@@ -7512,7 +7837,9 @@
       <c r="D266" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G266" s="4"/>
+      <c r="G266" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H266" s="4" t="s">
         <v>52</v>
       </c>
@@ -7521,7 +7848,7 @@
       <c r="K266" s="4"/>
       <c r="L266" s="4"/>
       <c r="M266" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="267" spans="1:13" ht="15.75">
@@ -7537,7 +7864,9 @@
       <c r="D267" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G267" s="4"/>
+      <c r="G267" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H267" s="4" t="s">
         <v>52</v>
       </c>
@@ -7546,7 +7875,7 @@
       <c r="K267" s="4"/>
       <c r="L267" s="4"/>
       <c r="M267" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="268" spans="1:13" ht="15.75">
@@ -7569,7 +7898,7 @@
       <c r="K268" s="4"/>
       <c r="L268" s="4"/>
       <c r="M268" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="269" spans="1:13" ht="15.75">
@@ -7594,7 +7923,7 @@
       </c>
       <c r="L269" s="4"/>
       <c r="M269" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="270" spans="1:13" ht="15.75">
@@ -7619,7 +7948,7 @@
       </c>
       <c r="L270" s="4"/>
       <c r="M270" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="271" spans="1:13" ht="15.75">
@@ -7644,7 +7973,7 @@
       <c r="K271" s="4"/>
       <c r="L271" s="4"/>
       <c r="M271" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="272" spans="1:13" ht="15.75">
@@ -7667,7 +7996,7 @@
       <c r="K272" s="4"/>
       <c r="L272" s="4"/>
       <c r="M272" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="273" spans="1:13" ht="15.75">
@@ -7692,7 +8021,7 @@
       </c>
       <c r="L273" s="4"/>
       <c r="M273" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="274" spans="1:13" ht="15.75">
@@ -7715,7 +8044,7 @@
       <c r="K274" s="4"/>
       <c r="L274" s="4"/>
       <c r="M274" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="275" spans="1:13" ht="15.75">
@@ -7743,7 +8072,7 @@
       <c r="K275" s="4"/>
       <c r="L275" s="4"/>
       <c r="M275" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="276" spans="1:13" ht="15.75">
@@ -7768,7 +8097,7 @@
       <c r="K276" s="4"/>
       <c r="L276" s="4"/>
       <c r="M276" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="277" spans="1:13" ht="15.75">
@@ -7793,7 +8122,7 @@
       <c r="K277" s="4"/>
       <c r="L277" s="4"/>
       <c r="M277" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="278" spans="1:13" ht="15.75">
@@ -7818,7 +8147,7 @@
       <c r="K278" s="4"/>
       <c r="L278" s="4"/>
       <c r="M278" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="279" spans="1:13" ht="15.75">
@@ -7841,7 +8170,7 @@
       <c r="K279" s="4"/>
       <c r="L279" s="4"/>
       <c r="M279" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="280" spans="1:13" ht="15.75">
@@ -7864,7 +8193,7 @@
       <c r="K280" s="4"/>
       <c r="L280" s="4"/>
       <c r="M280" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="281" spans="1:13" ht="15.75">
@@ -7887,7 +8216,7 @@
       <c r="K281" s="4"/>
       <c r="L281" s="4"/>
       <c r="M281" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="282" spans="1:13" ht="15.75">
@@ -7910,7 +8239,7 @@
       <c r="K282" s="4"/>
       <c r="L282" s="4"/>
       <c r="M282" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="283" spans="1:13" ht="15.75">
@@ -7933,7 +8262,7 @@
       <c r="K283" s="4"/>
       <c r="L283" s="4"/>
       <c r="M283" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="284" spans="1:13" ht="15.75">
@@ -7956,7 +8285,7 @@
       <c r="K284" s="4"/>
       <c r="L284" s="4"/>
       <c r="M284" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="285" spans="1:13" ht="15.75">
@@ -7979,7 +8308,7 @@
       <c r="K285" s="4"/>
       <c r="L285" s="4"/>
       <c r="M285" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="286" spans="1:13" ht="15.75">
@@ -8002,7 +8331,7 @@
       <c r="K286" s="4"/>
       <c r="L286" s="4"/>
       <c r="M286" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="287" spans="1:13" ht="15.75">
@@ -8025,7 +8354,7 @@
       <c r="K287" s="4"/>
       <c r="L287" s="4"/>
       <c r="M287" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="288" spans="1:13" ht="15.75">
@@ -8048,7 +8377,7 @@
       <c r="K288" s="4"/>
       <c r="L288" s="4"/>
       <c r="M288" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="289" spans="1:13" ht="15.75">
@@ -8066,7 +8395,9 @@
       </c>
       <c r="E289" s="5"/>
       <c r="F289" s="4"/>
-      <c r="G289" s="4"/>
+      <c r="G289" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H289" s="4" t="s">
         <v>52</v>
       </c>
@@ -8075,7 +8406,7 @@
       <c r="K289" s="4"/>
       <c r="L289" s="4"/>
       <c r="M289" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="290" spans="1:13" ht="15.75">
@@ -8093,7 +8424,9 @@
       </c>
       <c r="E290" s="5"/>
       <c r="F290" s="4"/>
-      <c r="G290" s="4"/>
+      <c r="G290" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H290" s="4" t="s">
         <v>52</v>
       </c>
@@ -8102,7 +8435,7 @@
       <c r="K290" s="4"/>
       <c r="L290" s="4"/>
       <c r="M290" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="291" spans="1:13" ht="15.75">
@@ -8120,7 +8453,9 @@
       </c>
       <c r="E291" s="5"/>
       <c r="F291" s="4"/>
-      <c r="G291" s="4"/>
+      <c r="G291" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H291" s="4" t="s">
         <v>52</v>
       </c>
@@ -8129,7 +8464,7 @@
       <c r="K291" s="4"/>
       <c r="L291" s="4"/>
       <c r="M291" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="292" spans="1:13" ht="15.75">
@@ -8147,7 +8482,9 @@
       </c>
       <c r="E292" s="5"/>
       <c r="F292" s="4"/>
-      <c r="G292" s="4"/>
+      <c r="G292" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H292" s="4" t="s">
         <v>52</v>
       </c>
@@ -8156,7 +8493,7 @@
       <c r="K292" s="4"/>
       <c r="L292" s="4"/>
       <c r="M292" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="293" spans="1:13" ht="15.75">
@@ -8181,7 +8518,7 @@
       <c r="K293" s="4"/>
       <c r="L293" s="4"/>
       <c r="M293" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="294" spans="1:13" ht="15.75">
@@ -8199,7 +8536,9 @@
       </c>
       <c r="E294" s="5"/>
       <c r="F294" s="4"/>
-      <c r="G294" s="4"/>
+      <c r="G294" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H294" s="4" t="s">
         <v>52</v>
       </c>
@@ -8208,7 +8547,7 @@
       <c r="K294" s="4"/>
       <c r="L294" s="4"/>
       <c r="M294" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="295" spans="1:13" ht="15.75">
@@ -8233,7 +8572,7 @@
       <c r="K295" s="4"/>
       <c r="L295" s="4"/>
       <c r="M295" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="296" spans="1:13" ht="15.75">
@@ -8251,7 +8590,9 @@
       </c>
       <c r="E296" s="5"/>
       <c r="F296" s="4"/>
-      <c r="G296" s="4"/>
+      <c r="G296" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H296" s="4" t="s">
         <v>52</v>
       </c>
@@ -8260,7 +8601,7 @@
       <c r="K296" s="4"/>
       <c r="L296" s="4"/>
       <c r="M296" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="297" spans="1:13" ht="15.75">
@@ -8285,7 +8626,7 @@
       <c r="K297" s="4"/>
       <c r="L297" s="4"/>
       <c r="M297" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="298" spans="1:13" ht="15.75">
@@ -8310,7 +8651,7 @@
       <c r="K298" s="4"/>
       <c r="L298" s="4"/>
       <c r="M298" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="299" spans="1:13" ht="15.75">
@@ -8335,7 +8676,7 @@
       <c r="K299" s="4"/>
       <c r="L299" s="4"/>
       <c r="M299" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="300" spans="1:13" ht="15.75">
@@ -8360,7 +8701,7 @@
       <c r="K300" s="4"/>
       <c r="L300" s="4"/>
       <c r="M300" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="301" spans="1:13" ht="15.75">
@@ -8385,7 +8726,7 @@
       <c r="K301" s="4"/>
       <c r="L301" s="4"/>
       <c r="M301" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="302" spans="1:13" ht="15.75">
@@ -8410,7 +8751,7 @@
       <c r="K302" s="4"/>
       <c r="L302" s="4"/>
       <c r="M302" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="303" spans="1:13" ht="15.75">
@@ -8435,7 +8776,7 @@
       <c r="K303" s="4"/>
       <c r="L303" s="4"/>
       <c r="M303" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="304" spans="1:13" ht="15.75">
@@ -8460,7 +8801,7 @@
       <c r="K304" s="4"/>
       <c r="L304" s="4"/>
       <c r="M304" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="305" spans="1:13" ht="15.75">
@@ -8480,16 +8821,18 @@
         <v>51</v>
       </c>
       <c r="F305" s="4"/>
-      <c r="G305" s="4"/>
+      <c r="G305" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H305" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="I305" s="4"/>
       <c r="J305" s="4"/>
       <c r="K305" s="4"/>
       <c r="L305" s="4"/>
       <c r="M305" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="306" spans="1:13" ht="15.75">
@@ -8507,7 +8850,9 @@
       </c>
       <c r="E306" s="5"/>
       <c r="F306" s="4"/>
-      <c r="G306" s="4"/>
+      <c r="G306" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H306" s="4" t="s">
         <v>52</v>
       </c>
@@ -8516,7 +8861,7 @@
       <c r="K306" s="4"/>
       <c r="L306" s="4"/>
       <c r="M306" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="307" spans="1:13" ht="15.75">
@@ -8541,7 +8886,7 @@
       <c r="K307" s="4"/>
       <c r="L307" s="4"/>
       <c r="M307" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="308" spans="1:13" ht="15.75">
@@ -8566,7 +8911,7 @@
       <c r="K308" s="4"/>
       <c r="L308" s="4"/>
       <c r="M308" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="309" spans="1:13" ht="15.75">
@@ -8584,7 +8929,9 @@
       </c>
       <c r="E309" s="5"/>
       <c r="F309" s="4"/>
-      <c r="G309" s="4"/>
+      <c r="G309" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H309" s="4" t="s">
         <v>52</v>
       </c>
@@ -8593,7 +8940,7 @@
       <c r="K309" s="4"/>
       <c r="L309" s="4"/>
       <c r="M309" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="310" spans="1:13" ht="15.75">
@@ -8611,7 +8958,9 @@
       </c>
       <c r="E310" s="5"/>
       <c r="F310" s="4"/>
-      <c r="G310" s="4"/>
+      <c r="G310" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H310" s="4" t="s">
         <v>52</v>
       </c>
@@ -8620,7 +8969,7 @@
       <c r="K310" s="4"/>
       <c r="L310" s="4"/>
       <c r="M310" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="311" spans="1:13" ht="15.75">
@@ -8647,7 +8996,7 @@
       </c>
       <c r="L311" s="4"/>
       <c r="M311" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="312" spans="1:13" ht="15.75">
@@ -8674,7 +9023,7 @@
       <c r="K312" s="4"/>
       <c r="L312" s="4"/>
       <c r="M312" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="313" spans="1:13" ht="15.75">
@@ -8699,7 +9048,7 @@
       <c r="K313" s="4"/>
       <c r="L313" s="4"/>
       <c r="M313" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="314" spans="1:13" ht="15.75">
@@ -8724,7 +9073,7 @@
       <c r="K314" s="4"/>
       <c r="L314" s="4"/>
       <c r="M314" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="315" spans="1:13" ht="15.75">
@@ -8742,16 +9091,18 @@
       </c>
       <c r="E315" s="5"/>
       <c r="F315" s="4"/>
-      <c r="G315" s="4"/>
+      <c r="G315" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H315" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="I315" s="4"/>
       <c r="J315" s="4"/>
       <c r="K315" s="4"/>
       <c r="L315" s="4"/>
       <c r="M315" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="316" spans="1:13" ht="15.75">
@@ -8778,7 +9129,7 @@
       <c r="K316" s="4"/>
       <c r="L316" s="4"/>
       <c r="M316" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="317" spans="1:13" ht="15.75">
@@ -8796,16 +9147,18 @@
       </c>
       <c r="E317" s="5"/>
       <c r="F317" s="4"/>
-      <c r="G317" s="4"/>
+      <c r="G317" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H317" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I317" s="4"/>
       <c r="J317" s="4"/>
       <c r="K317" s="4"/>
       <c r="L317" s="4"/>
       <c r="M317" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="318" spans="1:13" ht="15.75">
@@ -8823,16 +9176,18 @@
       </c>
       <c r="E318" s="5"/>
       <c r="F318" s="4"/>
-      <c r="G318" s="4"/>
+      <c r="G318" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H318" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I318" s="4"/>
       <c r="J318" s="4"/>
       <c r="K318" s="4"/>
       <c r="L318" s="4"/>
       <c r="M318" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="319" spans="1:13" ht="15.75">
@@ -8850,16 +9205,18 @@
       </c>
       <c r="E319" s="5"/>
       <c r="F319" s="4"/>
-      <c r="G319" s="4"/>
+      <c r="G319" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H319" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I319" s="4"/>
       <c r="J319" s="4"/>
       <c r="K319" s="4"/>
       <c r="L319" s="4"/>
       <c r="M319" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="320" spans="1:13" ht="15.75">
@@ -8879,16 +9236,18 @@
         <v>51</v>
       </c>
       <c r="F320" s="4"/>
-      <c r="G320" s="4"/>
+      <c r="G320" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H320" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I320" s="4"/>
       <c r="J320" s="4"/>
       <c r="K320" s="4"/>
       <c r="L320" s="4"/>
       <c r="M320" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="321" spans="1:13" ht="15.75">
@@ -8906,16 +9265,18 @@
       </c>
       <c r="E321" s="5"/>
       <c r="F321" s="4"/>
-      <c r="G321" s="4"/>
+      <c r="G321" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H321" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I321" s="4"/>
       <c r="J321" s="4"/>
       <c r="K321" s="4"/>
       <c r="L321" s="4"/>
       <c r="M321" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="322" spans="1:13" ht="15.75">
@@ -8940,7 +9301,7 @@
       <c r="K322" s="4"/>
       <c r="L322" s="4"/>
       <c r="M322" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="323" spans="1:13" ht="15.75">
@@ -8958,16 +9319,18 @@
       </c>
       <c r="E323" s="5"/>
       <c r="F323" s="4"/>
-      <c r="G323" s="4"/>
+      <c r="G323" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H323" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I323" s="4"/>
       <c r="J323" s="4"/>
       <c r="K323" s="4"/>
       <c r="L323" s="4"/>
       <c r="M323" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="324" spans="1:13" ht="15.75">
@@ -8985,16 +9348,18 @@
       </c>
       <c r="E324" s="5"/>
       <c r="F324" s="4"/>
-      <c r="G324" s="4"/>
+      <c r="G324" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H324" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I324" s="4"/>
       <c r="J324" s="4"/>
       <c r="K324" s="4"/>
       <c r="L324" s="4"/>
       <c r="M324" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="325" spans="1:13" ht="15.75">
@@ -9019,7 +9384,7 @@
       <c r="K325" s="4"/>
       <c r="L325" s="4"/>
       <c r="M325" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="326" spans="1:13" ht="15.75">
@@ -9037,16 +9402,18 @@
       </c>
       <c r="E326" s="5"/>
       <c r="F326" s="4"/>
-      <c r="G326" s="4"/>
+      <c r="G326" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H326" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I326" s="4"/>
       <c r="J326" s="4"/>
       <c r="K326" s="4"/>
       <c r="L326" s="4"/>
       <c r="M326" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="327" spans="1:13" ht="15.75">
@@ -9064,16 +9431,18 @@
       </c>
       <c r="E327" s="5"/>
       <c r="F327" s="4"/>
-      <c r="G327" s="4"/>
+      <c r="G327" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H327" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I327" s="4"/>
       <c r="J327" s="4"/>
       <c r="K327" s="4"/>
       <c r="L327" s="4"/>
       <c r="M327" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="328" spans="1:13" ht="15.75">
@@ -9098,7 +9467,7 @@
       <c r="K328" s="4"/>
       <c r="L328" s="4"/>
       <c r="M328" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="329" spans="1:13" ht="15.75">
@@ -9116,16 +9485,18 @@
       </c>
       <c r="E329" s="5"/>
       <c r="F329" s="4"/>
-      <c r="G329" s="4"/>
+      <c r="G329" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H329" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="I329" s="4"/>
       <c r="J329" s="4"/>
       <c r="K329" s="4"/>
       <c r="L329" s="4"/>
       <c r="M329" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="330" spans="1:13" ht="15.75">
@@ -9150,7 +9521,7 @@
       <c r="K330" s="4"/>
       <c r="L330" s="4"/>
       <c r="M330" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="331" spans="1:13" ht="15.75">
@@ -9177,7 +9548,7 @@
       </c>
       <c r="L331" s="4"/>
       <c r="M331" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="332" spans="1:13" ht="15.75">
@@ -9206,7 +9577,7 @@
       </c>
       <c r="L332" s="4"/>
       <c r="M332" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="333" spans="1:13" ht="15.75">
@@ -9223,19 +9594,21 @@
         <v>27</v>
       </c>
       <c r="E333" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F333" s="4"/>
-      <c r="G333" s="4"/>
+      <c r="G333" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H333" s="4" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="I333" s="4"/>
       <c r="J333" s="4"/>
       <c r="K333" s="4"/>
       <c r="L333" s="4"/>
       <c r="M333" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="334" spans="1:13" ht="15.75">
@@ -9252,7 +9625,7 @@
         <v>27</v>
       </c>
       <c r="E334" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F334" s="4"/>
       <c r="G334" s="4"/>
@@ -9262,7 +9635,7 @@
       <c r="K334" s="4"/>
       <c r="L334" s="4"/>
       <c r="M334" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="335" spans="1:13" ht="15.75">
@@ -9279,7 +9652,7 @@
         <v>27</v>
       </c>
       <c r="E335" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F335" s="4"/>
       <c r="G335" s="4"/>
@@ -9289,7 +9662,7 @@
       <c r="K335" s="4"/>
       <c r="L335" s="4"/>
       <c r="M335" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="336" spans="1:13" ht="15.75">
@@ -9306,7 +9679,7 @@
         <v>27</v>
       </c>
       <c r="E336" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F336" s="4"/>
       <c r="G336" s="4"/>
@@ -9316,7 +9689,7 @@
       <c r="K336" s="4"/>
       <c r="L336" s="4"/>
       <c r="M336" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="337" spans="1:13" ht="15.75">
@@ -9333,7 +9706,7 @@
         <v>27</v>
       </c>
       <c r="E337" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G337" s="4"/>
       <c r="H337" s="4"/>
@@ -9342,7 +9715,7 @@
       <c r="K337" s="4"/>
       <c r="L337" s="4"/>
       <c r="M337" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="338" spans="1:13" ht="15.75">
@@ -9359,7 +9732,7 @@
         <v>27</v>
       </c>
       <c r="E338" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G338" s="4"/>
       <c r="H338" s="4"/>
@@ -9368,7 +9741,7 @@
       <c r="K338" s="4"/>
       <c r="L338" s="4"/>
       <c r="M338" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="339" spans="1:13" ht="15.75">
@@ -9385,7 +9758,7 @@
         <v>27</v>
       </c>
       <c r="E339" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G339" s="4"/>
       <c r="H339" s="4"/>
@@ -9394,7 +9767,7 @@
       <c r="K339" s="4"/>
       <c r="L339" s="4"/>
       <c r="M339" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="340" spans="1:13" ht="15.75">
@@ -9411,7 +9784,7 @@
         <v>27</v>
       </c>
       <c r="E340" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G340" s="4"/>
       <c r="H340" s="4"/>
@@ -9420,7 +9793,7 @@
       <c r="K340" s="4"/>
       <c r="L340" s="4"/>
       <c r="M340" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="341" spans="1:13" ht="15.75">
@@ -9437,7 +9810,7 @@
         <v>27</v>
       </c>
       <c r="E341" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="G341" s="4"/>
       <c r="H341" s="4"/>
@@ -9446,7 +9819,7 @@
       <c r="K341" s="4"/>
       <c r="L341" s="4"/>
       <c r="M341" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="342" spans="1:13" ht="15.75">
@@ -9463,7 +9836,7 @@
         <v>27</v>
       </c>
       <c r="E342" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G342" s="4"/>
       <c r="H342" s="4"/>
@@ -9472,7 +9845,7 @@
       <c r="K342" s="4"/>
       <c r="L342" s="4"/>
       <c r="M342" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="343" spans="1:13" ht="15.75">
@@ -9489,7 +9862,7 @@
         <v>27</v>
       </c>
       <c r="E343" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G343" s="4"/>
       <c r="H343" s="4"/>
@@ -9498,7 +9871,7 @@
       <c r="K343" s="4"/>
       <c r="L343" s="4"/>
       <c r="M343" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="344" spans="1:13" ht="15.75">
@@ -9515,7 +9888,7 @@
         <v>27</v>
       </c>
       <c r="E344" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G344" s="4"/>
       <c r="H344" s="4"/>
@@ -9524,7 +9897,7 @@
       <c r="K344" s="4"/>
       <c r="L344" s="4"/>
       <c r="M344" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="345" spans="1:13" ht="15.75">
@@ -9541,7 +9914,7 @@
         <v>27</v>
       </c>
       <c r="E345" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G345" s="4"/>
       <c r="H345" s="4"/>
@@ -9550,7 +9923,7 @@
       <c r="K345" s="4"/>
       <c r="L345" s="4"/>
       <c r="M345" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="346" spans="1:13" ht="15.75">
@@ -9567,7 +9940,7 @@
         <v>27</v>
       </c>
       <c r="E346" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G346" s="4"/>
       <c r="H346" s="4"/>
@@ -9576,7 +9949,7 @@
       <c r="K346" s="4"/>
       <c r="L346" s="4"/>
       <c r="M346" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="347" spans="1:13" ht="15.75">
@@ -9593,7 +9966,7 @@
         <v>27</v>
       </c>
       <c r="E347" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G347" s="4"/>
       <c r="H347" s="4"/>
@@ -9602,7 +9975,7 @@
       <c r="K347" s="4"/>
       <c r="L347" s="4"/>
       <c r="M347" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="348" spans="1:13" ht="15.75">
@@ -9619,7 +9992,7 @@
         <v>11</v>
       </c>
       <c r="E348" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G348" s="4"/>
       <c r="H348" s="4"/>
@@ -9630,7 +10003,7 @@
       </c>
       <c r="L348" s="4"/>
       <c r="M348" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="349" spans="1:13" ht="15.75">
@@ -9647,7 +10020,7 @@
         <v>11</v>
       </c>
       <c r="E349" s="2" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="G349" s="4"/>
       <c r="H349" s="4"/>
@@ -9658,7 +10031,7 @@
       </c>
       <c r="L349" s="4"/>
       <c r="M349" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="350" spans="1:13" ht="15.75">
@@ -9683,7 +10056,7 @@
       </c>
       <c r="L350" s="4"/>
       <c r="M350" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="351" spans="1:13" ht="15.75">
@@ -9710,7 +10083,7 @@
       </c>
       <c r="L351" s="4"/>
       <c r="M351" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="352" spans="1:13" ht="15.75">
@@ -9738,7 +10111,7 @@
       </c>
       <c r="L352" s="4"/>
       <c r="M352" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="353" spans="1:13" ht="15.75">
@@ -9763,7 +10136,7 @@
       </c>
       <c r="L353" s="4"/>
       <c r="M353" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="354" spans="1:13" ht="15.75">
@@ -9788,7 +10161,7 @@
       </c>
       <c r="L354" s="4"/>
       <c r="M354" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="355" spans="1:13" ht="15.75">
@@ -9813,7 +10186,7 @@
       </c>
       <c r="L355" s="4"/>
       <c r="M355" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="356" spans="1:13" ht="15.75">
@@ -9838,7 +10211,7 @@
       </c>
       <c r="L356" s="4"/>
       <c r="M356" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="357" spans="1:13" ht="15.75">
@@ -9863,7 +10236,7 @@
       </c>
       <c r="L357" s="4"/>
       <c r="M357" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="358" spans="1:13" ht="15.75">
@@ -9888,7 +10261,7 @@
       </c>
       <c r="L358" s="4"/>
       <c r="M358" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="359" spans="1:13" ht="15.75">
@@ -9913,7 +10286,7 @@
       </c>
       <c r="L359" s="4"/>
       <c r="M359" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="360" spans="1:13" ht="15.75">
@@ -9940,7 +10313,7 @@
       </c>
       <c r="L360" s="4"/>
       <c r="M360" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="361" spans="1:13" ht="15.75">
@@ -9965,7 +10338,7 @@
       </c>
       <c r="L361" s="4"/>
       <c r="M361" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="362" spans="1:13" ht="15.75">
@@ -9990,7 +10363,7 @@
       <c r="K362" s="4"/>
       <c r="L362" s="4"/>
       <c r="M362" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="363" spans="1:13" ht="15.75">
@@ -10013,7 +10386,7 @@
       <c r="K363" s="4"/>
       <c r="L363" s="4"/>
       <c r="M363" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="364" spans="1:13" ht="15.75">
@@ -10039,7 +10412,7 @@
       <c r="K364" s="4"/>
       <c r="L364" s="4"/>
       <c r="M364" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="365" spans="1:13" ht="15.75">
@@ -10062,7 +10435,7 @@
       <c r="K365" s="4"/>
       <c r="L365" s="4"/>
       <c r="M365" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="366" spans="1:13" ht="15.75">
@@ -10087,7 +10460,7 @@
       </c>
       <c r="L366" s="4"/>
       <c r="M366" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="367" spans="1:13" ht="15.75">
@@ -10112,7 +10485,7 @@
       </c>
       <c r="L367" s="4"/>
       <c r="M367" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="368" spans="1:13" ht="15.75">
@@ -10137,7 +10510,7 @@
       <c r="K368" s="4"/>
       <c r="L368" s="4"/>
       <c r="M368" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="369" spans="1:13" ht="15.75">
@@ -10164,7 +10537,7 @@
       </c>
       <c r="L369" s="4"/>
       <c r="M369" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="370" spans="1:13" ht="15.75">
@@ -10191,7 +10564,7 @@
       <c r="K370" s="4"/>
       <c r="L370" s="4"/>
       <c r="M370" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="371" spans="1:13" ht="15.75">
@@ -10218,7 +10591,7 @@
       <c r="K371" s="4"/>
       <c r="L371" s="4"/>
       <c r="M371" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="372" spans="1:13" ht="15.75">
@@ -10245,7 +10618,7 @@
       <c r="K372" s="4"/>
       <c r="L372" s="4"/>
       <c r="M372" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="373" spans="1:13" ht="15.75">
@@ -10274,7 +10647,7 @@
       <c r="K373" s="4"/>
       <c r="L373" s="4"/>
       <c r="M373" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="374" spans="1:13" ht="15.75">
@@ -10301,7 +10674,7 @@
       <c r="K374" s="4"/>
       <c r="L374" s="4"/>
       <c r="M374" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="375" spans="1:13" ht="15.75">
@@ -10328,7 +10701,7 @@
       <c r="K375" s="4"/>
       <c r="L375" s="4"/>
       <c r="M375" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="376" spans="1:13" ht="15.75">
@@ -10355,7 +10728,7 @@
       <c r="K376" s="4"/>
       <c r="L376" s="4"/>
       <c r="M376" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="377" spans="1:13" ht="15.75">
@@ -10373,9 +10746,11 @@
       </c>
       <c r="E377" s="5"/>
       <c r="F377" s="4"/>
-      <c r="G377" s="4"/>
+      <c r="G377" s="4" t="s">
+        <v>43</v>
+      </c>
       <c r="H377" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="I377" s="4">
         <v>1</v>
@@ -10384,7 +10759,7 @@
       <c r="K377" s="4"/>
       <c r="L377" s="4"/>
       <c r="M377" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="378" spans="1:13" ht="15.75">
@@ -10411,7 +10786,7 @@
       <c r="K378" s="4"/>
       <c r="L378" s="4"/>
       <c r="M378" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="379" spans="1:13" ht="15.75">
@@ -10438,7 +10813,7 @@
       <c r="K379" s="4"/>
       <c r="L379" s="4"/>
       <c r="M379" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="380" spans="1:13" ht="15.75">
@@ -10467,7 +10842,7 @@
       </c>
       <c r="L380" s="4"/>
       <c r="M380" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="381" spans="1:13" ht="15.75">
@@ -10494,7 +10869,7 @@
       </c>
       <c r="L381" s="4"/>
       <c r="M381" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="382" spans="1:13" ht="15.75">
@@ -10521,7 +10896,7 @@
       <c r="K382" s="4"/>
       <c r="L382" s="4"/>
       <c r="M382" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="383" spans="1:13" ht="15.75">
@@ -10548,7 +10923,7 @@
       <c r="K383" s="4"/>
       <c r="L383" s="4"/>
       <c r="M383" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="384" spans="1:13" ht="15.75">
@@ -10575,7 +10950,7 @@
       <c r="K384" s="4"/>
       <c r="L384" s="4"/>
       <c r="M384" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="385" spans="1:13" ht="15.75">
@@ -10600,7 +10975,7 @@
       <c r="K385" s="4"/>
       <c r="L385" s="4"/>
       <c r="M385" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="386" spans="1:13" ht="15.75">
@@ -10625,7 +11000,7 @@
       <c r="K386" s="4"/>
       <c r="L386" s="4"/>
       <c r="M386" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="387" spans="1:13" ht="15.75">
@@ -10651,7 +11026,7 @@
       <c r="K387" s="4"/>
       <c r="L387" s="4"/>
       <c r="M387" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="388" spans="1:13" ht="15.75">
@@ -10676,7 +11051,7 @@
       <c r="K388" s="4"/>
       <c r="L388" s="4"/>
       <c r="M388" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="389" spans="1:13" ht="15.75">
@@ -10701,7 +11076,7 @@
       </c>
       <c r="L389" s="4"/>
       <c r="M389" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="390" spans="1:13" ht="15.75">
@@ -10726,7 +11101,7 @@
       <c r="K390" s="4"/>
       <c r="L390" s="4"/>
       <c r="M390" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="391" spans="1:13" ht="15.75">
@@ -10752,7 +11127,7 @@
       <c r="K391" s="4"/>
       <c r="L391" s="4"/>
       <c r="M391" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="392" spans="1:13" ht="15.75">
@@ -10775,7 +11150,7 @@
       <c r="K392" s="4"/>
       <c r="L392" s="4"/>
       <c r="M392" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="393" spans="1:13" ht="15.75">
@@ -10798,7 +11173,7 @@
       <c r="K393" s="4"/>
       <c r="L393" s="4"/>
       <c r="M393" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="394" spans="1:13" ht="15.75">
@@ -10821,7 +11196,7 @@
       <c r="K394" s="4"/>
       <c r="L394" s="4"/>
       <c r="M394" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="395" spans="1:13" ht="15.75">
@@ -10844,7 +11219,7 @@
       <c r="K395" s="4"/>
       <c r="L395" s="4"/>
       <c r="M395" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="396" spans="1:13" ht="15.75">
@@ -10869,7 +11244,7 @@
       <c r="K396" s="4"/>
       <c r="L396" s="4"/>
       <c r="M396" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="397" spans="1:13" ht="15.75">
@@ -10894,7 +11269,7 @@
       <c r="K397" s="4"/>
       <c r="L397" s="4"/>
       <c r="M397" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="398" spans="1:13" ht="15.75">
@@ -10922,7 +11297,7 @@
       <c r="K398" s="4"/>
       <c r="L398" s="4"/>
       <c r="M398" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="399" spans="1:13" ht="15.75">
@@ -10945,7 +11320,7 @@
       <c r="K399" s="4"/>
       <c r="L399" s="4"/>
       <c r="M399" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="400" spans="1:13" ht="15.75">
@@ -10968,7 +11343,7 @@
       <c r="K400" s="4"/>
       <c r="L400" s="4"/>
       <c r="M400" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="401" spans="1:13" ht="15.75">
@@ -10993,7 +11368,7 @@
       <c r="K401" s="4"/>
       <c r="L401" s="4"/>
       <c r="M401" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="402" spans="1:13" ht="15.75">
@@ -11016,7 +11391,7 @@
       <c r="K402" s="4"/>
       <c r="L402" s="4"/>
       <c r="M402" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="403" spans="1:13" ht="15.75">
@@ -11041,7 +11416,7 @@
       </c>
       <c r="L403" s="4"/>
       <c r="M403" s="7" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -11050,7 +11425,7 @@
     <hyperlink ref="M3:M403" r:id="rId2" display="\\bic.mskcc.org\HaloData\Melanoma_IL2__Final\Cohort2\HaloCoordinates"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/meta/MelanomaCohort2_FOVannotations.xlsx
+++ b/meta/MelanomaCohort2_FOVannotations.xlsx
@@ -15,7 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="171027" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -906,8 +906,8 @@
   <dimension ref="A1:M403"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A164" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L192" sqref="L192"/>
+      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L401" sqref="L401"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -6028,7 +6028,9 @@
       <c r="I191" s="4"/>
       <c r="J191" s="4"/>
       <c r="K191" s="4"/>
-      <c r="L191" s="4"/>
+      <c r="L191" s="4">
+        <v>3</v>
+      </c>
       <c r="M191" s="7" t="s">
         <v>71</v>
       </c>
@@ -6052,7 +6054,9 @@
       <c r="I192" s="4"/>
       <c r="J192" s="4"/>
       <c r="K192" s="4"/>
-      <c r="L192" s="4"/>
+      <c r="L192" s="4">
+        <v>67</v>
+      </c>
       <c r="M192" s="7" t="s">
         <v>71</v>
       </c>
@@ -6079,9 +6083,7 @@
       <c r="I193" s="4"/>
       <c r="J193" s="4"/>
       <c r="K193" s="4"/>
-      <c r="L193" s="4">
-        <v>1</v>
-      </c>
+      <c r="L193" s="4"/>
       <c r="M193" s="7" t="s">
         <v>71</v>
       </c>
@@ -6110,9 +6112,7 @@
       <c r="K194" s="4">
         <v>1</v>
       </c>
-      <c r="L194" s="4">
-        <v>1</v>
-      </c>
+      <c r="L194" s="4"/>
       <c r="M194" s="7" t="s">
         <v>71</v>
       </c>
@@ -6402,7 +6402,9 @@
       <c r="I206" s="4"/>
       <c r="J206" s="4"/>
       <c r="K206" s="4"/>
-      <c r="L206" s="4"/>
+      <c r="L206" s="4">
+        <v>32</v>
+      </c>
       <c r="M206" s="7" t="s">
         <v>71</v>
       </c>
@@ -6425,7 +6427,9 @@
       <c r="I207" s="4"/>
       <c r="J207" s="4"/>
       <c r="K207" s="4"/>
-      <c r="L207" s="4"/>
+      <c r="L207" s="4">
+        <v>19</v>
+      </c>
       <c r="M207" s="7" t="s">
         <v>71</v>
       </c>
@@ -6448,7 +6452,9 @@
       <c r="I208" s="4"/>
       <c r="J208" s="4"/>
       <c r="K208" s="4"/>
-      <c r="L208" s="4"/>
+      <c r="L208" s="4">
+        <v>93</v>
+      </c>
       <c r="M208" s="7" t="s">
         <v>71</v>
       </c>
@@ -6471,7 +6477,9 @@
       <c r="I209" s="4"/>
       <c r="J209" s="4"/>
       <c r="K209" s="4"/>
-      <c r="L209" s="4"/>
+      <c r="L209" s="4">
+        <v>47</v>
+      </c>
       <c r="M209" s="7" t="s">
         <v>71</v>
       </c>
@@ -6497,7 +6505,9 @@
       <c r="K210" s="4">
         <v>4</v>
       </c>
-      <c r="L210" s="4"/>
+      <c r="L210" s="4">
+        <v>26</v>
+      </c>
       <c r="M210" s="7" t="s">
         <v>71</v>
       </c>
@@ -6523,7 +6533,9 @@
       <c r="K211" s="4">
         <v>1</v>
       </c>
-      <c r="L211" s="4"/>
+      <c r="L211" s="4">
+        <v>35</v>
+      </c>
       <c r="M211" s="7" t="s">
         <v>71</v>
       </c>
@@ -6549,7 +6561,9 @@
       <c r="K212" s="4">
         <v>1</v>
       </c>
-      <c r="L212" s="4"/>
+      <c r="L212" s="4">
+        <v>35</v>
+      </c>
       <c r="M212" s="7" t="s">
         <v>71</v>
       </c>
@@ -6574,7 +6588,9 @@
       <c r="K213" s="4">
         <v>3</v>
       </c>
-      <c r="L213" s="4"/>
+      <c r="L213" s="4">
+        <v>32</v>
+      </c>
       <c r="M213" s="7" t="s">
         <v>71</v>
       </c>
@@ -6599,7 +6615,9 @@
       <c r="K214" s="4">
         <v>1</v>
       </c>
-      <c r="L214" s="4"/>
+      <c r="L214" s="4">
+        <v>24</v>
+      </c>
       <c r="M214" s="7" t="s">
         <v>71</v>
       </c>
@@ -6622,7 +6640,9 @@
       <c r="I215" s="4"/>
       <c r="J215" s="4"/>
       <c r="K215" s="4"/>
-      <c r="L215" s="4"/>
+      <c r="L215" s="4">
+        <v>30</v>
+      </c>
       <c r="M215" s="7" t="s">
         <v>71</v>
       </c>
@@ -6645,7 +6665,9 @@
       <c r="I216" s="4"/>
       <c r="J216" s="4"/>
       <c r="K216" s="4"/>
-      <c r="L216" s="4"/>
+      <c r="L216" s="4">
+        <v>39</v>
+      </c>
       <c r="M216" s="7" t="s">
         <v>71</v>
       </c>
@@ -6668,7 +6690,9 @@
       <c r="I217" s="4"/>
       <c r="J217" s="4"/>
       <c r="K217" s="4"/>
-      <c r="L217" s="4"/>
+      <c r="L217" s="4">
+        <v>1</v>
+      </c>
       <c r="M217" s="7" t="s">
         <v>71</v>
       </c>
@@ -6694,7 +6718,9 @@
       <c r="I218" s="4"/>
       <c r="J218" s="4"/>
       <c r="K218" s="4"/>
-      <c r="L218" s="4"/>
+      <c r="L218" s="4">
+        <v>7</v>
+      </c>
       <c r="M218" s="7" t="s">
         <v>71</v>
       </c>
@@ -6717,7 +6743,9 @@
       <c r="I219" s="4"/>
       <c r="J219" s="4"/>
       <c r="K219" s="4"/>
-      <c r="L219" s="4"/>
+      <c r="L219" s="4">
+        <v>2</v>
+      </c>
       <c r="M219" s="7" t="s">
         <v>71</v>
       </c>
@@ -6740,7 +6768,9 @@
       <c r="I220" s="4"/>
       <c r="J220" s="4"/>
       <c r="K220" s="4"/>
-      <c r="L220" s="4"/>
+      <c r="L220" s="4">
+        <v>19</v>
+      </c>
       <c r="M220" s="7" t="s">
         <v>71</v>
       </c>
@@ -6765,7 +6795,9 @@
       </c>
       <c r="J221" s="4"/>
       <c r="K221" s="4"/>
-      <c r="L221" s="4"/>
+      <c r="L221" s="4">
+        <v>3</v>
+      </c>
       <c r="M221" s="7" t="s">
         <v>71</v>
       </c>
@@ -6788,7 +6820,9 @@
       <c r="I222" s="4"/>
       <c r="J222" s="4"/>
       <c r="K222" s="4"/>
-      <c r="L222" s="4"/>
+      <c r="L222" s="4">
+        <v>17</v>
+      </c>
       <c r="M222" s="7" t="s">
         <v>71</v>
       </c>
@@ -6813,7 +6847,9 @@
       </c>
       <c r="J223" s="4"/>
       <c r="K223" s="4"/>
-      <c r="L223" s="4"/>
+      <c r="L223" s="4">
+        <v>12</v>
+      </c>
       <c r="M223" s="7" t="s">
         <v>71</v>
       </c>
@@ -6861,7 +6897,9 @@
       <c r="I225" s="4"/>
       <c r="J225" s="4"/>
       <c r="K225" s="4"/>
-      <c r="L225" s="4"/>
+      <c r="L225" s="4">
+        <v>10</v>
+      </c>
       <c r="M225" s="7" t="s">
         <v>71</v>
       </c>
@@ -6884,7 +6922,9 @@
       <c r="I226" s="4"/>
       <c r="J226" s="4"/>
       <c r="K226" s="4"/>
-      <c r="L226" s="4"/>
+      <c r="L226" s="4">
+        <v>21</v>
+      </c>
       <c r="M226" s="7" t="s">
         <v>71</v>
       </c>
@@ -7235,7 +7275,9 @@
       <c r="I241" s="4"/>
       <c r="J241" s="4"/>
       <c r="K241" s="4"/>
-      <c r="L241" s="4"/>
+      <c r="L241" s="4">
+        <v>8</v>
+      </c>
       <c r="M241" s="7" t="s">
         <v>71</v>
       </c>
@@ -7258,7 +7300,9 @@
       <c r="I242" s="4"/>
       <c r="J242" s="4"/>
       <c r="K242" s="4"/>
-      <c r="L242" s="4"/>
+      <c r="L242" s="4">
+        <v>4</v>
+      </c>
       <c r="M242" s="7" t="s">
         <v>71</v>
       </c>
@@ -7281,7 +7325,9 @@
       <c r="I243" s="4"/>
       <c r="J243" s="4"/>
       <c r="K243" s="4"/>
-      <c r="L243" s="4"/>
+      <c r="L243" s="4">
+        <v>12</v>
+      </c>
       <c r="M243" s="7" t="s">
         <v>71</v>
       </c>
@@ -7304,7 +7350,9 @@
       <c r="I244" s="4"/>
       <c r="J244" s="4"/>
       <c r="K244" s="4"/>
-      <c r="L244" s="4"/>
+      <c r="L244" s="4">
+        <v>7</v>
+      </c>
       <c r="M244" s="7" t="s">
         <v>71</v>
       </c>
@@ -7354,7 +7402,9 @@
       <c r="I246" s="4"/>
       <c r="J246" s="4"/>
       <c r="K246" s="4"/>
-      <c r="L246" s="4"/>
+      <c r="L246" s="4">
+        <v>33</v>
+      </c>
       <c r="M246" s="7" t="s">
         <v>71</v>
       </c>
@@ -7407,7 +7457,9 @@
       <c r="I248" s="4"/>
       <c r="J248" s="4"/>
       <c r="K248" s="4"/>
-      <c r="L248" s="4"/>
+      <c r="L248" s="4">
+        <v>13</v>
+      </c>
       <c r="M248" s="7" t="s">
         <v>71</v>
       </c>
@@ -7432,7 +7484,9 @@
       </c>
       <c r="J249" s="4"/>
       <c r="K249" s="4"/>
-      <c r="L249" s="4"/>
+      <c r="L249" s="4">
+        <v>5</v>
+      </c>
       <c r="M249" s="7" t="s">
         <v>71</v>
       </c>
@@ -7455,7 +7509,9 @@
       <c r="I250" s="4"/>
       <c r="J250" s="4"/>
       <c r="K250" s="4"/>
-      <c r="L250" s="4"/>
+      <c r="L250" s="4">
+        <v>7</v>
+      </c>
       <c r="M250" s="7" t="s">
         <v>71</v>
       </c>
@@ -7478,7 +7534,9 @@
       <c r="I251" s="4"/>
       <c r="J251" s="4"/>
       <c r="K251" s="4"/>
-      <c r="L251" s="4"/>
+      <c r="L251" s="4">
+        <v>17</v>
+      </c>
       <c r="M251" s="7" t="s">
         <v>71</v>
       </c>
@@ -7503,7 +7561,9 @@
       </c>
       <c r="J252" s="4"/>
       <c r="K252" s="4"/>
-      <c r="L252" s="4"/>
+      <c r="L252" s="4">
+        <v>3</v>
+      </c>
       <c r="M252" s="7" t="s">
         <v>71</v>
       </c>
@@ -7526,7 +7586,9 @@
       <c r="I253" s="4"/>
       <c r="J253" s="4"/>
       <c r="K253" s="4"/>
-      <c r="L253" s="4"/>
+      <c r="L253" s="4">
+        <v>24</v>
+      </c>
       <c r="M253" s="7" t="s">
         <v>71</v>
       </c>
@@ -7552,7 +7614,9 @@
       <c r="I254" s="4"/>
       <c r="J254" s="4"/>
       <c r="K254" s="4"/>
-      <c r="L254" s="4"/>
+      <c r="L254" s="4">
+        <v>11</v>
+      </c>
       <c r="M254" s="7" t="s">
         <v>71</v>
       </c>
@@ -7575,7 +7639,9 @@
       <c r="I255" s="4"/>
       <c r="J255" s="4"/>
       <c r="K255" s="4"/>
-      <c r="L255" s="4"/>
+      <c r="L255" s="4">
+        <v>12</v>
+      </c>
       <c r="M255" s="7" t="s">
         <v>71</v>
       </c>
@@ -7600,7 +7666,9 @@
       </c>
       <c r="J256" s="4"/>
       <c r="K256" s="4"/>
-      <c r="L256" s="4"/>
+      <c r="L256" s="4">
+        <v>18</v>
+      </c>
       <c r="M256" s="7" t="s">
         <v>71</v>
       </c>
@@ -7623,7 +7691,9 @@
       <c r="I257" s="4"/>
       <c r="J257" s="4"/>
       <c r="K257" s="4"/>
-      <c r="L257" s="4"/>
+      <c r="L257" s="4">
+        <v>17</v>
+      </c>
       <c r="M257" s="7" t="s">
         <v>71</v>
       </c>
@@ -7646,7 +7716,9 @@
       <c r="I258" s="4"/>
       <c r="J258" s="4"/>
       <c r="K258" s="4"/>
-      <c r="L258" s="4"/>
+      <c r="L258" s="4">
+        <v>14</v>
+      </c>
       <c r="M258" s="7" t="s">
         <v>71</v>
       </c>
@@ -7896,7 +7968,9 @@
       <c r="I268" s="4"/>
       <c r="J268" s="4"/>
       <c r="K268" s="4"/>
-      <c r="L268" s="4"/>
+      <c r="L268" s="4">
+        <v>46</v>
+      </c>
       <c r="M268" s="7" t="s">
         <v>71</v>
       </c>
@@ -7921,7 +7995,9 @@
       <c r="K269" s="4">
         <v>1</v>
       </c>
-      <c r="L269" s="4"/>
+      <c r="L269" s="4">
+        <v>8</v>
+      </c>
       <c r="M269" s="7" t="s">
         <v>71</v>
       </c>
@@ -7946,7 +8022,9 @@
       <c r="K270" s="4">
         <v>4</v>
       </c>
-      <c r="L270" s="4"/>
+      <c r="L270" s="4">
+        <v>28</v>
+      </c>
       <c r="M270" s="7" t="s">
         <v>71</v>
       </c>
@@ -7971,7 +8049,9 @@
         <v>1</v>
       </c>
       <c r="K271" s="4"/>
-      <c r="L271" s="4"/>
+      <c r="L271" s="4">
+        <v>7</v>
+      </c>
       <c r="M271" s="7" t="s">
         <v>71</v>
       </c>
@@ -8019,7 +8099,9 @@
       <c r="K273" s="4">
         <v>1</v>
       </c>
-      <c r="L273" s="4"/>
+      <c r="L273" s="4">
+        <v>20</v>
+      </c>
       <c r="M273" s="7" t="s">
         <v>71</v>
       </c>
@@ -8042,7 +8124,9 @@
       <c r="I274" s="4"/>
       <c r="J274" s="4"/>
       <c r="K274" s="4"/>
-      <c r="L274" s="4"/>
+      <c r="L274" s="4">
+        <v>1</v>
+      </c>
       <c r="M274" s="7" t="s">
         <v>71</v>
       </c>
@@ -8070,7 +8154,9 @@
         <v>1</v>
       </c>
       <c r="K275" s="4"/>
-      <c r="L275" s="4"/>
+      <c r="L275" s="4">
+        <v>1</v>
+      </c>
       <c r="M275" s="7" t="s">
         <v>71</v>
       </c>
@@ -8095,7 +8181,9 @@
         <v>1</v>
       </c>
       <c r="K276" s="4"/>
-      <c r="L276" s="4"/>
+      <c r="L276" s="4">
+        <v>1</v>
+      </c>
       <c r="M276" s="7" t="s">
         <v>71</v>
       </c>
@@ -8120,7 +8208,9 @@
         <v>1</v>
       </c>
       <c r="K277" s="4"/>
-      <c r="L277" s="4"/>
+      <c r="L277" s="4">
+        <v>1</v>
+      </c>
       <c r="M277" s="7" t="s">
         <v>71</v>
       </c>
@@ -8145,7 +8235,9 @@
         <v>1</v>
       </c>
       <c r="K278" s="4"/>
-      <c r="L278" s="4"/>
+      <c r="L278" s="4">
+        <v>1</v>
+      </c>
       <c r="M278" s="7" t="s">
         <v>71</v>
       </c>
@@ -8168,7 +8260,9 @@
       <c r="I279" s="4"/>
       <c r="J279" s="4"/>
       <c r="K279" s="4"/>
-      <c r="L279" s="4"/>
+      <c r="L279" s="4">
+        <v>69</v>
+      </c>
       <c r="M279" s="7" t="s">
         <v>71</v>
       </c>
@@ -8191,7 +8285,9 @@
       <c r="I280" s="4"/>
       <c r="J280" s="4"/>
       <c r="K280" s="4"/>
-      <c r="L280" s="4"/>
+      <c r="L280" s="4">
+        <v>5</v>
+      </c>
       <c r="M280" s="7" t="s">
         <v>71</v>
       </c>
@@ -8214,7 +8310,9 @@
       <c r="I281" s="4"/>
       <c r="J281" s="4"/>
       <c r="K281" s="4"/>
-      <c r="L281" s="4"/>
+      <c r="L281" s="4">
+        <v>6</v>
+      </c>
       <c r="M281" s="7" t="s">
         <v>71</v>
       </c>
@@ -8237,7 +8335,9 @@
       <c r="I282" s="4"/>
       <c r="J282" s="4"/>
       <c r="K282" s="4"/>
-      <c r="L282" s="4"/>
+      <c r="L282" s="4">
+        <v>11</v>
+      </c>
       <c r="M282" s="7" t="s">
         <v>71</v>
       </c>
@@ -10054,7 +10154,9 @@
       <c r="K350" s="4">
         <v>7</v>
       </c>
-      <c r="L350" s="4"/>
+      <c r="L350" s="4">
+        <v>5</v>
+      </c>
       <c r="M350" s="7" t="s">
         <v>71</v>
       </c>
@@ -10081,7 +10183,9 @@
       <c r="K351" s="4">
         <v>6</v>
       </c>
-      <c r="L351" s="4"/>
+      <c r="L351" s="4">
+        <v>4</v>
+      </c>
       <c r="M351" s="7" t="s">
         <v>71</v>
       </c>
@@ -10109,7 +10213,9 @@
       <c r="K352" s="4">
         <v>5</v>
       </c>
-      <c r="L352" s="4"/>
+      <c r="L352" s="4">
+        <v>2</v>
+      </c>
       <c r="M352" s="7" t="s">
         <v>71</v>
       </c>
@@ -10184,7 +10290,9 @@
       <c r="K355" s="4">
         <v>2</v>
       </c>
-      <c r="L355" s="4"/>
+      <c r="L355" s="4">
+        <v>18</v>
+      </c>
       <c r="M355" s="7" t="s">
         <v>71</v>
       </c>
@@ -10209,7 +10317,9 @@
       <c r="K356" s="4">
         <v>2</v>
       </c>
-      <c r="L356" s="4"/>
+      <c r="L356" s="4">
+        <v>15</v>
+      </c>
       <c r="M356" s="7" t="s">
         <v>71</v>
       </c>
@@ -10234,7 +10344,9 @@
       <c r="K357" s="4">
         <v>1</v>
       </c>
-      <c r="L357" s="4"/>
+      <c r="L357" s="4">
+        <v>13</v>
+      </c>
       <c r="M357" s="7" t="s">
         <v>71</v>
       </c>
@@ -10259,7 +10371,9 @@
       <c r="K358" s="4">
         <v>1</v>
       </c>
-      <c r="L358" s="4"/>
+      <c r="L358" s="4">
+        <v>3</v>
+      </c>
       <c r="M358" s="7" t="s">
         <v>71</v>
       </c>
@@ -10336,7 +10450,9 @@
       <c r="K361" s="4">
         <v>1</v>
       </c>
-      <c r="L361" s="4"/>
+      <c r="L361" s="4">
+        <v>19</v>
+      </c>
       <c r="M361" s="7" t="s">
         <v>71</v>
       </c>
@@ -10361,7 +10477,9 @@
         <v>1</v>
       </c>
       <c r="K362" s="4"/>
-      <c r="L362" s="4"/>
+      <c r="L362" s="4">
+        <v>24</v>
+      </c>
       <c r="M362" s="7" t="s">
         <v>71</v>
       </c>
@@ -10384,7 +10502,9 @@
       <c r="I363" s="4"/>
       <c r="J363" s="4"/>
       <c r="K363" s="4"/>
-      <c r="L363" s="4"/>
+      <c r="L363" s="4">
+        <v>6</v>
+      </c>
       <c r="M363" s="7" t="s">
         <v>71</v>
       </c>
@@ -10410,7 +10530,9 @@
       <c r="I364" s="4"/>
       <c r="J364" s="4"/>
       <c r="K364" s="4"/>
-      <c r="L364" s="4"/>
+      <c r="L364" s="4">
+        <v>30</v>
+      </c>
       <c r="M364" s="7" t="s">
         <v>71</v>
       </c>
@@ -10433,7 +10555,9 @@
       <c r="I365" s="4"/>
       <c r="J365" s="4"/>
       <c r="K365" s="4"/>
-      <c r="L365" s="4"/>
+      <c r="L365" s="4">
+        <v>32</v>
+      </c>
       <c r="M365" s="7" t="s">
         <v>71</v>
       </c>
@@ -10458,7 +10582,9 @@
       <c r="K366" s="4">
         <v>1</v>
       </c>
-      <c r="L366" s="4"/>
+      <c r="L366" s="4">
+        <v>15</v>
+      </c>
       <c r="M366" s="7" t="s">
         <v>71</v>
       </c>
@@ -10483,7 +10609,9 @@
       <c r="K367" s="4">
         <v>1</v>
       </c>
-      <c r="L367" s="4"/>
+      <c r="L367" s="4">
+        <v>27</v>
+      </c>
       <c r="M367" s="7" t="s">
         <v>71</v>
       </c>
@@ -11099,7 +11227,9 @@
         <v>1</v>
       </c>
       <c r="K390" s="4"/>
-      <c r="L390" s="4"/>
+      <c r="L390" s="4">
+        <v>106</v>
+      </c>
       <c r="M390" s="7" t="s">
         <v>71</v>
       </c>
@@ -11125,7 +11255,9 @@
       <c r="I391" s="4"/>
       <c r="J391" s="4"/>
       <c r="K391" s="4"/>
-      <c r="L391" s="4"/>
+      <c r="L391" s="4">
+        <v>74</v>
+      </c>
       <c r="M391" s="7" t="s">
         <v>71</v>
       </c>
@@ -11148,7 +11280,9 @@
       <c r="I392" s="4"/>
       <c r="J392" s="4"/>
       <c r="K392" s="4"/>
-      <c r="L392" s="4"/>
+      <c r="L392" s="4">
+        <v>21</v>
+      </c>
       <c r="M392" s="7" t="s">
         <v>71</v>
       </c>
@@ -11171,7 +11305,9 @@
       <c r="I393" s="4"/>
       <c r="J393" s="4"/>
       <c r="K393" s="4"/>
-      <c r="L393" s="4"/>
+      <c r="L393" s="4">
+        <v>18</v>
+      </c>
       <c r="M393" s="7" t="s">
         <v>71</v>
       </c>
@@ -11194,7 +11330,9 @@
       <c r="I394" s="4"/>
       <c r="J394" s="4"/>
       <c r="K394" s="4"/>
-      <c r="L394" s="4"/>
+      <c r="L394" s="4">
+        <v>51</v>
+      </c>
       <c r="M394" s="7" t="s">
         <v>71</v>
       </c>
@@ -11217,7 +11355,9 @@
       <c r="I395" s="4"/>
       <c r="J395" s="4"/>
       <c r="K395" s="4"/>
-      <c r="L395" s="4"/>
+      <c r="L395" s="4">
+        <v>44</v>
+      </c>
       <c r="M395" s="7" t="s">
         <v>71</v>
       </c>
@@ -11242,7 +11382,9 @@
         <v>1</v>
       </c>
       <c r="K396" s="4"/>
-      <c r="L396" s="4"/>
+      <c r="L396" s="4">
+        <v>15</v>
+      </c>
       <c r="M396" s="7" t="s">
         <v>71</v>
       </c>
@@ -11267,7 +11409,9 @@
         <v>1</v>
       </c>
       <c r="K397" s="4"/>
-      <c r="L397" s="4"/>
+      <c r="L397" s="4">
+        <v>35</v>
+      </c>
       <c r="M397" s="7" t="s">
         <v>71</v>
       </c>
@@ -11295,7 +11439,9 @@
         <v>1</v>
       </c>
       <c r="K398" s="4"/>
-      <c r="L398" s="4"/>
+      <c r="L398" s="4">
+        <v>11</v>
+      </c>
       <c r="M398" s="7" t="s">
         <v>71</v>
       </c>
@@ -11366,7 +11512,9 @@
         <v>1</v>
       </c>
       <c r="K401" s="4"/>
-      <c r="L401" s="4"/>
+      <c r="L401" s="4">
+        <v>55</v>
+      </c>
       <c r="M401" s="7" t="s">
         <v>71</v>
       </c>

--- a/meta/MelanomaCohort2_FOVannotations.xlsx
+++ b/meta/MelanomaCohort2_FOVannotations.xlsx
@@ -9,13 +9,13 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12210" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14445" windowHeight="12165" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="171027" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1863" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1870" uniqueCount="74">
   <si>
     <t>FOV_number</t>
   </si>
@@ -244,6 +244,9 @@
   </si>
   <si>
     <t>Number_glass_exclusion_areasHalo</t>
+  </si>
+  <si>
+    <t>FOV_used_for_thresholding</t>
   </si>
 </sst>
 </file>
@@ -903,11 +906,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M403"/>
+  <dimension ref="A1:N403"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A371" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L401" sqref="L401"/>
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="80" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A32" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N6" sqref="N6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="14.25"/>
@@ -917,15 +920,15 @@
     <col min="6" max="6" width="22.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="23.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="20.125" style="1" customWidth="1"/>
-    <col min="9" max="9" width="28" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="34.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="28" style="1" customWidth="1"/>
+    <col min="10" max="10" width="34.125" style="1" customWidth="1"/>
     <col min="11" max="12" width="28" style="1" customWidth="1"/>
-    <col min="13" max="13" width="26.375" style="4" customWidth="1"/>
-    <col min="14" max="14" width="14.375" style="4" customWidth="1"/>
+    <col min="13" max="13" width="67.75" style="4" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="26.625" style="4" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="8.875" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>47</v>
       </c>
@@ -965,8 +968,11 @@
       <c r="M1" s="4" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" ht="15.75">
+      <c r="N1" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" ht="15.75">
       <c r="A2" s="4" t="s">
         <v>7</v>
       </c>
@@ -996,7 +1002,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="15.75">
+    <row r="3" spans="1:14" ht="15.75">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -1024,7 +1030,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="4" spans="1:13" ht="15.75">
+    <row r="4" spans="1:14" ht="15.75">
       <c r="A4" s="4" t="s">
         <v>7</v>
       </c>
@@ -1050,7 +1056,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="15.75">
+    <row r="5" spans="1:14" ht="15.75">
       <c r="A5" s="4" t="s">
         <v>7</v>
       </c>
@@ -1076,7 +1082,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="15.75">
+    <row r="6" spans="1:14" ht="15.75">
       <c r="A6" s="4" t="s">
         <v>7</v>
       </c>
@@ -1102,7 +1108,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:13" ht="15.75">
+    <row r="7" spans="1:14" ht="15.75">
       <c r="A7" s="4" t="s">
         <v>7</v>
       </c>
@@ -1128,7 +1134,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="15.75">
+    <row r="8" spans="1:14" ht="15.75">
       <c r="A8" s="4" t="s">
         <v>7</v>
       </c>
@@ -1154,7 +1160,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="9" spans="1:13" ht="15.75">
+    <row r="9" spans="1:14" ht="15.75">
       <c r="A9" s="4" t="s">
         <v>7</v>
       </c>
@@ -1184,8 +1190,11 @@
       <c r="M9" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="10" spans="1:13" ht="15.75">
+      <c r="N9" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" ht="15.75">
       <c r="A10" s="4" t="s">
         <v>7</v>
       </c>
@@ -1209,7 +1218,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="15.75">
+    <row r="11" spans="1:14" ht="15.75">
       <c r="A11" s="4" t="s">
         <v>7</v>
       </c>
@@ -1235,7 +1244,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="12" spans="1:13" ht="15.75">
+    <row r="12" spans="1:14" ht="15.75">
       <c r="A12" s="4" t="s">
         <v>7</v>
       </c>
@@ -1263,7 +1272,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="13" spans="1:13" ht="15.75">
+    <row r="13" spans="1:14" ht="15.75">
       <c r="A13" s="4" t="s">
         <v>7</v>
       </c>
@@ -1289,7 +1298,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="14" spans="1:13" ht="15.75">
+    <row r="14" spans="1:14" ht="15.75">
       <c r="A14" s="4" t="s">
         <v>7</v>
       </c>
@@ -1315,7 +1324,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="15" spans="1:13" ht="15.75">
+    <row r="15" spans="1:14" ht="15.75">
       <c r="A15" s="4" t="s">
         <v>7</v>
       </c>
@@ -1343,7 +1352,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="16" spans="1:13" ht="15.75">
+    <row r="16" spans="1:14" ht="15.75">
       <c r="A16" s="4" t="s">
         <v>12</v>
       </c>
@@ -1372,6 +1381,9 @@
       </c>
       <c r="M16" s="7" t="s">
         <v>71</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="1:13" ht="15.75">
@@ -1819,7 +1831,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="33" spans="1:13" ht="15.75">
+    <row r="33" spans="1:14" ht="15.75">
       <c r="A33" s="4" t="s">
         <v>12</v>
       </c>
@@ -1843,7 +1855,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="15.75">
+    <row r="34" spans="1:14" ht="15.75">
       <c r="A34" s="4" t="s">
         <v>12</v>
       </c>
@@ -1869,7 +1881,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="35" spans="1:13" ht="15.75">
+    <row r="35" spans="1:14" ht="15.75">
       <c r="A35" s="4" t="s">
         <v>12</v>
       </c>
@@ -1897,7 +1909,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="36" spans="1:13" ht="15.75">
+    <row r="36" spans="1:14" ht="15.75">
       <c r="A36" s="4" t="s">
         <v>12</v>
       </c>
@@ -1925,7 +1937,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="37" spans="1:13" ht="15.75">
+    <row r="37" spans="1:14" ht="15.75">
       <c r="A37" s="4" t="s">
         <v>12</v>
       </c>
@@ -1953,7 +1965,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="38" spans="1:13" ht="15.75">
+    <row r="38" spans="1:14" ht="15.75">
       <c r="A38" s="4" t="s">
         <v>12</v>
       </c>
@@ -1981,7 +1993,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="39" spans="1:13" ht="15.75">
+    <row r="39" spans="1:14" ht="15.75">
       <c r="A39" s="4" t="s">
         <v>12</v>
       </c>
@@ -2007,7 +2019,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="15.75">
+    <row r="40" spans="1:14" ht="15.75">
       <c r="A40" s="4" t="s">
         <v>12</v>
       </c>
@@ -2033,7 +2045,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="41" spans="1:13" ht="15.75">
+    <row r="41" spans="1:14" ht="15.75">
       <c r="A41" s="4" t="s">
         <v>12</v>
       </c>
@@ -2064,7 +2076,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="42" spans="1:13" ht="15.75">
+    <row r="42" spans="1:14" ht="15.75">
       <c r="A42" s="4" t="s">
         <v>12</v>
       </c>
@@ -2088,7 +2100,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="43" spans="1:13" ht="15.75">
+    <row r="43" spans="1:14" ht="15.75">
       <c r="A43" s="4" t="s">
         <v>12</v>
       </c>
@@ -2116,7 +2128,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:13" ht="15.75">
+    <row r="44" spans="1:14" ht="15.75">
       <c r="A44" s="4" t="s">
         <v>12</v>
       </c>
@@ -2143,7 +2155,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="45" spans="1:13" ht="15.75">
+    <row r="45" spans="1:14" ht="15.75">
       <c r="A45" s="4" t="s">
         <v>14</v>
       </c>
@@ -2167,7 +2179,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="46" spans="1:13" ht="15.75">
+    <row r="46" spans="1:14" ht="15.75">
       <c r="A46" s="4" t="s">
         <v>14</v>
       </c>
@@ -2191,7 +2203,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="47" spans="1:13" ht="15.75">
+    <row r="47" spans="1:14" ht="15.75">
       <c r="A47" s="4" t="s">
         <v>14</v>
       </c>
@@ -2217,8 +2229,11 @@
       <c r="M47" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="48" spans="1:13" ht="15.75">
+      <c r="N47" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" ht="15.75">
       <c r="A48" s="4" t="s">
         <v>14</v>
       </c>
@@ -2647,7 +2662,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="15.75">
+    <row r="65" spans="1:14" ht="15.75">
       <c r="A65" s="4" t="s">
         <v>15</v>
       </c>
@@ -2673,7 +2688,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="15.75">
+    <row r="66" spans="1:14" ht="15.75">
       <c r="A66" s="4" t="s">
         <v>15</v>
       </c>
@@ -2701,7 +2716,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="15.75">
+    <row r="67" spans="1:14" ht="15.75">
       <c r="A67" s="4" t="s">
         <v>15</v>
       </c>
@@ -2729,7 +2744,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="15.75">
+    <row r="68" spans="1:14" ht="15.75">
       <c r="A68" s="4" t="s">
         <v>15</v>
       </c>
@@ -2757,7 +2772,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="15.75">
+    <row r="69" spans="1:14" ht="15.75">
       <c r="A69" s="4" t="s">
         <v>15</v>
       </c>
@@ -2785,8 +2800,11 @@
       <c r="M69" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="70" spans="1:13" ht="15.75">
+      <c r="N69" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" ht="15.75">
       <c r="A70" s="4" t="s">
         <v>15</v>
       </c>
@@ -2814,7 +2832,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="15.75">
+    <row r="71" spans="1:14" ht="15.75">
       <c r="A71" s="4" t="s">
         <v>15</v>
       </c>
@@ -2845,7 +2863,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="15.75">
+    <row r="72" spans="1:14" ht="15.75">
       <c r="A72" s="4" t="s">
         <v>15</v>
       </c>
@@ -2870,7 +2888,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="15.75">
+    <row r="73" spans="1:14" ht="15.75">
       <c r="A73" s="4" t="s">
         <v>15</v>
       </c>
@@ -2895,7 +2913,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="15.75">
+    <row r="74" spans="1:14" ht="15.75">
       <c r="A74" s="4" t="s">
         <v>15</v>
       </c>
@@ -2920,7 +2938,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="15.75">
+    <row r="75" spans="1:14" ht="15.75">
       <c r="A75" s="4" t="s">
         <v>15</v>
       </c>
@@ -2944,7 +2962,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="15.75">
+    <row r="76" spans="1:14" ht="15.75">
       <c r="A76" s="4" t="s">
         <v>15</v>
       </c>
@@ -2968,7 +2986,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="15.75">
+    <row r="77" spans="1:14" ht="15.75">
       <c r="A77" s="4" t="s">
         <v>15</v>
       </c>
@@ -2992,7 +3010,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="15.75">
+    <row r="78" spans="1:14" ht="15.75">
       <c r="A78" s="4" t="s">
         <v>16</v>
       </c>
@@ -3023,7 +3041,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="15.75">
+    <row r="79" spans="1:14" ht="15.75">
       <c r="A79" s="4" t="s">
         <v>16</v>
       </c>
@@ -3049,7 +3067,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="15.75">
+    <row r="80" spans="1:14" ht="15.75">
       <c r="A80" s="4" t="s">
         <v>16</v>
       </c>
@@ -3075,7 +3093,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="15.75">
+    <row r="81" spans="1:14" ht="15.75">
       <c r="A81" s="4" t="s">
         <v>16</v>
       </c>
@@ -3103,8 +3121,11 @@
       <c r="M81" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="82" spans="1:13" ht="15.75">
+      <c r="N81" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" ht="15.75">
       <c r="A82" s="4" t="s">
         <v>16</v>
       </c>
@@ -3132,7 +3153,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="15.75">
+    <row r="83" spans="1:14" ht="15.75">
       <c r="A83" s="4" t="s">
         <v>16</v>
       </c>
@@ -3158,7 +3179,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="15.75">
+    <row r="84" spans="1:14" ht="15.75">
       <c r="A84" s="4" t="s">
         <v>16</v>
       </c>
@@ -3184,7 +3205,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="15.75">
+    <row r="85" spans="1:14" ht="15.75">
       <c r="A85" s="4" t="s">
         <v>16</v>
       </c>
@@ -3212,8 +3233,11 @@
       <c r="M85" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="86" spans="1:13" ht="15.75">
+      <c r="N85" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" ht="15.75">
       <c r="A86" s="4" t="s">
         <v>16</v>
       </c>
@@ -3239,7 +3263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="15.75">
+    <row r="87" spans="1:14" ht="15.75">
       <c r="A87" s="4" t="s">
         <v>16</v>
       </c>
@@ -3265,7 +3289,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="15.75">
+    <row r="88" spans="1:14" ht="15.75">
       <c r="A88" s="4" t="s">
         <v>16</v>
       </c>
@@ -3291,7 +3315,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="15.75">
+    <row r="89" spans="1:14" ht="15.75">
       <c r="A89" s="4" t="s">
         <v>16</v>
       </c>
@@ -3319,7 +3343,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="15.75">
+    <row r="90" spans="1:14" ht="15.75">
       <c r="A90" s="4" t="s">
         <v>16</v>
       </c>
@@ -3349,7 +3373,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="15.75">
+    <row r="91" spans="1:14" ht="15.75">
       <c r="A91" s="4" t="s">
         <v>16</v>
       </c>
@@ -3369,7 +3393,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="15.75">
+    <row r="92" spans="1:14" ht="15.75">
       <c r="A92" s="4" t="s">
         <v>16</v>
       </c>
@@ -3389,7 +3413,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="15.75">
+    <row r="93" spans="1:14" ht="15.75">
       <c r="A93" s="4" t="s">
         <v>16</v>
       </c>
@@ -3409,7 +3433,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="15.75">
+    <row r="94" spans="1:14" ht="15.75">
       <c r="A94" s="4" t="s">
         <v>16</v>
       </c>
@@ -3429,7 +3453,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="15.75">
+    <row r="95" spans="1:14" ht="15.75">
       <c r="A95" s="4" t="s">
         <v>16</v>
       </c>
@@ -3452,7 +3476,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="15.75">
+    <row r="96" spans="1:14" ht="15.75">
       <c r="A96" s="4" t="s">
         <v>16</v>
       </c>
@@ -3921,7 +3945,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="113" spans="1:13" ht="15.75">
+    <row r="113" spans="1:14" ht="15.75">
       <c r="A113" s="1" t="s">
         <v>17</v>
       </c>
@@ -3948,7 +3972,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="114" spans="1:13" ht="15.75">
+    <row r="114" spans="1:14" ht="15.75">
       <c r="A114" s="1" t="s">
         <v>17</v>
       </c>
@@ -3979,8 +4003,11 @@
       <c r="M114" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="115" spans="1:13" ht="15.75">
+      <c r="N114" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" ht="15.75">
       <c r="A115" s="1" t="s">
         <v>17</v>
       </c>
@@ -4012,7 +4039,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="116" spans="1:13" ht="15.75">
+    <row r="116" spans="1:14" ht="15.75">
       <c r="A116" s="1" t="s">
         <v>17</v>
       </c>
@@ -4041,7 +4068,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="117" spans="1:13" ht="15.75">
+    <row r="117" spans="1:14" ht="15.75">
       <c r="A117" s="1" t="s">
         <v>17</v>
       </c>
@@ -4068,7 +4095,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="118" spans="1:13" ht="15.75">
+    <row r="118" spans="1:14" ht="15.75">
       <c r="A118" s="1" t="s">
         <v>17</v>
       </c>
@@ -4095,7 +4122,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="119" spans="1:13" ht="15.75">
+    <row r="119" spans="1:14" ht="15.75">
       <c r="A119" s="1" t="s">
         <v>17</v>
       </c>
@@ -4122,7 +4149,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="120" spans="1:13" ht="15.75">
+    <row r="120" spans="1:14" ht="15.75">
       <c r="A120" s="1" t="s">
         <v>17</v>
       </c>
@@ -4149,7 +4176,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="121" spans="1:13" ht="15.75">
+    <row r="121" spans="1:14" ht="15.75">
       <c r="A121" s="1" t="s">
         <v>17</v>
       </c>
@@ -4178,7 +4205,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="122" spans="1:13" ht="15.75">
+    <row r="122" spans="1:14" ht="15.75">
       <c r="A122" s="1" t="s">
         <v>17</v>
       </c>
@@ -4209,8 +4236,11 @@
       <c r="M122" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="123" spans="1:13" ht="15.75">
+      <c r="N122" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" ht="15.75">
       <c r="A123" s="1" t="s">
         <v>17</v>
       </c>
@@ -4239,7 +4269,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="124" spans="1:13" ht="15.75">
+    <row r="124" spans="1:14" ht="15.75">
       <c r="A124" s="1" t="s">
         <v>17</v>
       </c>
@@ -4268,7 +4298,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="125" spans="1:13" ht="15.75">
+    <row r="125" spans="1:14" ht="15.75">
       <c r="A125" s="1" t="s">
         <v>17</v>
       </c>
@@ -4297,7 +4327,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="126" spans="1:13" ht="15.75">
+    <row r="126" spans="1:14" ht="15.75">
       <c r="A126" s="1" t="s">
         <v>17</v>
       </c>
@@ -4324,7 +4354,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="127" spans="1:13" ht="15.75">
+    <row r="127" spans="1:14" ht="15.75">
       <c r="A127" s="1" t="s">
         <v>17</v>
       </c>
@@ -4351,7 +4381,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="128" spans="1:13" ht="15.75">
+    <row r="128" spans="1:14" ht="15.75">
       <c r="A128" s="1" t="s">
         <v>17</v>
       </c>
@@ -4378,7 +4408,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="15.75">
+    <row r="129" spans="1:14" ht="15.75">
       <c r="A129" s="1" t="s">
         <v>17</v>
       </c>
@@ -4405,7 +4435,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="130" spans="1:13" ht="15.75">
+    <row r="130" spans="1:14" ht="15.75">
       <c r="A130" s="1" t="s">
         <v>17</v>
       </c>
@@ -4432,7 +4462,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="15.75">
+    <row r="131" spans="1:14" ht="15.75">
       <c r="A131" s="1" t="s">
         <v>17</v>
       </c>
@@ -4459,7 +4489,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="132" spans="1:13" ht="15.75">
+    <row r="132" spans="1:14" ht="15.75">
       <c r="A132" s="1" t="s">
         <v>17</v>
       </c>
@@ -4486,7 +4516,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="15.75">
+    <row r="133" spans="1:14" ht="15.75">
       <c r="A133" s="1" t="s">
         <v>18</v>
       </c>
@@ -4515,7 +4545,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="15.75">
+    <row r="134" spans="1:14" ht="15.75">
       <c r="A134" s="1" t="s">
         <v>18</v>
       </c>
@@ -4540,7 +4570,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="15.75">
+    <row r="135" spans="1:14" ht="15.75">
       <c r="A135" s="1" t="s">
         <v>18</v>
       </c>
@@ -4565,7 +4595,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="136" spans="1:13" ht="15.75">
+    <row r="136" spans="1:14" ht="15.75">
       <c r="A136" s="1" t="s">
         <v>18</v>
       </c>
@@ -4592,8 +4622,11 @@
       <c r="M136" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="137" spans="1:13" ht="15.75">
+      <c r="N136" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" ht="15.75">
       <c r="A137" s="1" t="s">
         <v>18</v>
       </c>
@@ -4618,7 +4651,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="15.75">
+    <row r="138" spans="1:14" ht="15.75">
       <c r="A138" s="1" t="s">
         <v>18</v>
       </c>
@@ -4645,7 +4678,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="15.75">
+    <row r="139" spans="1:14" ht="15.75">
       <c r="A139" s="1" t="s">
         <v>18</v>
       </c>
@@ -4672,7 +4705,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="15.75">
+    <row r="140" spans="1:14" ht="15.75">
       <c r="A140" s="1" t="s">
         <v>18</v>
       </c>
@@ -4701,7 +4734,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="15.75">
+    <row r="141" spans="1:14" ht="15.75">
       <c r="A141" s="1" t="s">
         <v>18</v>
       </c>
@@ -4726,7 +4759,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="15.75">
+    <row r="142" spans="1:14" ht="15.75">
       <c r="A142" s="1" t="s">
         <v>18</v>
       </c>
@@ -4753,7 +4786,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="15.75">
+    <row r="143" spans="1:14" ht="15.75">
       <c r="A143" s="1" t="s">
         <v>18</v>
       </c>
@@ -4780,7 +4813,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="144" spans="1:13" ht="15.75">
+    <row r="144" spans="1:14" ht="15.75">
       <c r="A144" s="1" t="s">
         <v>18</v>
       </c>
@@ -5230,7 +5263,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="161" spans="1:13" ht="15.75">
+    <row r="161" spans="1:14" ht="15.75">
       <c r="A161" s="1" t="s">
         <v>18</v>
       </c>
@@ -5257,7 +5290,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="162" spans="1:13" ht="15.75">
+    <row r="162" spans="1:14" ht="15.75">
       <c r="A162" s="1" t="s">
         <v>18</v>
       </c>
@@ -5282,7 +5315,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="163" spans="1:13" ht="15.75">
+    <row r="163" spans="1:14" ht="15.75">
       <c r="A163" s="1" t="s">
         <v>18</v>
       </c>
@@ -5305,7 +5338,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="164" spans="1:13" ht="15.75">
+    <row r="164" spans="1:14" ht="15.75">
       <c r="A164" s="1" t="s">
         <v>18</v>
       </c>
@@ -5328,7 +5361,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="165" spans="1:13" ht="15.75">
+    <row r="165" spans="1:14" ht="15.75">
       <c r="A165" s="1" t="s">
         <v>18</v>
       </c>
@@ -5351,7 +5384,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="166" spans="1:13" ht="15.75">
+    <row r="166" spans="1:14" ht="15.75">
       <c r="A166" s="1" t="s">
         <v>18</v>
       </c>
@@ -5374,7 +5407,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="167" spans="1:13" ht="15.75">
+    <row r="167" spans="1:14" ht="15.75">
       <c r="A167" s="1" t="s">
         <v>18</v>
       </c>
@@ -5403,7 +5436,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="168" spans="1:13" ht="15.75">
+    <row r="168" spans="1:14" ht="15.75">
       <c r="A168" s="1" t="s">
         <v>18</v>
       </c>
@@ -5430,7 +5463,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="169" spans="1:13" ht="15.75">
+    <row r="169" spans="1:14" ht="15.75">
       <c r="A169" s="1" t="s">
         <v>18</v>
       </c>
@@ -5457,7 +5490,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="170" spans="1:13" ht="15.75">
+    <row r="170" spans="1:14" ht="15.75">
       <c r="A170" s="1" t="s">
         <v>19</v>
       </c>
@@ -5487,7 +5520,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="171" spans="1:13" ht="15.75">
+    <row r="171" spans="1:14" ht="15.75">
       <c r="A171" s="1" t="s">
         <v>19</v>
       </c>
@@ -5512,7 +5545,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="172" spans="1:13" ht="15.75">
+    <row r="172" spans="1:14" ht="15.75">
       <c r="A172" s="1" t="s">
         <v>19</v>
       </c>
@@ -5539,8 +5572,11 @@
       <c r="M172" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="173" spans="1:13" ht="15.75">
+      <c r="N172" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="173" spans="1:14" ht="15.75">
       <c r="A173" s="1" t="s">
         <v>19</v>
       </c>
@@ -5565,7 +5601,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="174" spans="1:13" ht="15.75">
+    <row r="174" spans="1:14" ht="15.75">
       <c r="A174" s="1" t="s">
         <v>19</v>
       </c>
@@ -5590,7 +5626,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="175" spans="1:13" ht="15.75">
+    <row r="175" spans="1:14" ht="15.75">
       <c r="A175" s="1" t="s">
         <v>19</v>
       </c>
@@ -5615,7 +5651,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="176" spans="1:13" ht="15.75">
+    <row r="176" spans="1:14" ht="15.75">
       <c r="A176" s="1" t="s">
         <v>19</v>
       </c>
@@ -5640,7 +5676,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="177" spans="1:13" ht="15.75">
+    <row r="177" spans="1:14" ht="15.75">
       <c r="A177" s="1" t="s">
         <v>19</v>
       </c>
@@ -5666,7 +5702,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="178" spans="1:13" ht="15.75">
+    <row r="178" spans="1:14" ht="15.75">
       <c r="A178" s="1" t="s">
         <v>19</v>
       </c>
@@ -5692,7 +5728,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="179" spans="1:13" ht="15.75">
+    <row r="179" spans="1:14" ht="15.75">
       <c r="A179" s="1" t="s">
         <v>19</v>
       </c>
@@ -5718,7 +5754,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="180" spans="1:13" ht="15.75">
+    <row r="180" spans="1:14" ht="15.75">
       <c r="A180" s="1" t="s">
         <v>19</v>
       </c>
@@ -5746,8 +5782,11 @@
       <c r="M180" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="181" spans="1:13" ht="15.75">
+      <c r="N180" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="181" spans="1:14" ht="15.75">
       <c r="A181" s="1" t="s">
         <v>19</v>
       </c>
@@ -5775,7 +5814,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="182" spans="1:13" ht="15.75">
+    <row r="182" spans="1:14" ht="15.75">
       <c r="A182" s="1" t="s">
         <v>19</v>
       </c>
@@ -5801,7 +5840,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="183" spans="1:13" ht="15.75">
+    <row r="183" spans="1:14" ht="15.75">
       <c r="A183" s="1" t="s">
         <v>19</v>
       </c>
@@ -5827,7 +5866,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="184" spans="1:13" ht="15.75">
+    <row r="184" spans="1:14" ht="15.75">
       <c r="A184" s="1" t="s">
         <v>19</v>
       </c>
@@ -5853,7 +5892,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="185" spans="1:13" ht="15.75">
+    <row r="185" spans="1:14" ht="15.75">
       <c r="A185" s="1" t="s">
         <v>19</v>
       </c>
@@ -5879,7 +5918,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="186" spans="1:13" ht="15.75">
+    <row r="186" spans="1:14" ht="15.75">
       <c r="A186" s="1" t="s">
         <v>19</v>
       </c>
@@ -5905,7 +5944,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="187" spans="1:13" ht="15.75">
+    <row r="187" spans="1:14" ht="15.75">
       <c r="A187" s="1" t="s">
         <v>19</v>
       </c>
@@ -5931,7 +5970,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="188" spans="1:13" ht="15.75">
+    <row r="188" spans="1:14" ht="15.75">
       <c r="A188" s="1" t="s">
         <v>19</v>
       </c>
@@ -5957,7 +5996,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="189" spans="1:13" ht="15.75">
+    <row r="189" spans="1:14" ht="15.75">
       <c r="A189" s="1" t="s">
         <v>19</v>
       </c>
@@ -5983,7 +6022,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="190" spans="1:13" ht="15.75">
+    <row r="190" spans="1:14" ht="15.75">
       <c r="A190" s="1" t="s">
         <v>19</v>
       </c>
@@ -6009,7 +6048,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="191" spans="1:13" ht="15.75">
+    <row r="191" spans="1:14" ht="15.75">
       <c r="A191" s="1" t="s">
         <v>19</v>
       </c>
@@ -6035,7 +6074,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="192" spans="1:13" ht="15.75">
+    <row r="192" spans="1:14" ht="15.75">
       <c r="A192" s="1" t="s">
         <v>19</v>
       </c>
@@ -6074,9 +6113,7 @@
       <c r="D193" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G193" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G193" s="4"/>
       <c r="H193" s="4" t="s">
         <v>59</v>
       </c>
@@ -6101,9 +6138,7 @@
       <c r="D194" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G194" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G194" s="4"/>
       <c r="H194" s="4" t="s">
         <v>59</v>
       </c>
@@ -6257,7 +6292,9 @@
       </c>
       <c r="G200" s="4"/>
       <c r="H200" s="4"/>
-      <c r="I200" s="4"/>
+      <c r="I200" s="4">
+        <v>1</v>
+      </c>
       <c r="J200" s="4"/>
       <c r="K200" s="4"/>
       <c r="L200" s="4"/>
@@ -6459,7 +6496,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="209" spans="1:13" ht="15.75">
+    <row r="209" spans="1:14" ht="15.75">
       <c r="A209" s="1" t="s">
         <v>20</v>
       </c>
@@ -6484,7 +6521,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="210" spans="1:13" ht="15.75">
+    <row r="210" spans="1:14" ht="15.75">
       <c r="A210" s="1" t="s">
         <v>20</v>
       </c>
@@ -6512,7 +6549,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="211" spans="1:13" ht="15.75">
+    <row r="211" spans="1:14" ht="15.75">
       <c r="A211" s="1" t="s">
         <v>20</v>
       </c>
@@ -6540,7 +6577,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="212" spans="1:13" ht="15.75">
+    <row r="212" spans="1:14" ht="15.75">
       <c r="A212" s="1" t="s">
         <v>20</v>
       </c>
@@ -6568,7 +6605,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="213" spans="1:13" ht="15.75">
+    <row r="213" spans="1:14" ht="15.75">
       <c r="A213" s="1" t="s">
         <v>20</v>
       </c>
@@ -6595,7 +6632,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="214" spans="1:13" ht="15.75">
+    <row r="214" spans="1:14" ht="15.75">
       <c r="A214" s="1" t="s">
         <v>20</v>
       </c>
@@ -6622,7 +6659,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="215" spans="1:13" ht="15.75">
+    <row r="215" spans="1:14" ht="15.75">
       <c r="A215" s="1" t="s">
         <v>20</v>
       </c>
@@ -6647,7 +6684,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="216" spans="1:13" ht="15.75">
+    <row r="216" spans="1:14" ht="15.75">
       <c r="A216" s="1" t="s">
         <v>20</v>
       </c>
@@ -6672,7 +6709,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="217" spans="1:13" ht="15.75">
+    <row r="217" spans="1:14" ht="15.75">
       <c r="A217" s="1" t="s">
         <v>20</v>
       </c>
@@ -6697,7 +6734,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="218" spans="1:13" ht="15.75">
+    <row r="218" spans="1:14" ht="15.75">
       <c r="A218" s="1" t="s">
         <v>20</v>
       </c>
@@ -6724,8 +6761,11 @@
       <c r="M218" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="219" spans="1:13" ht="15.75">
+      <c r="N218" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="219" spans="1:14" ht="15.75">
       <c r="A219" s="1" t="s">
         <v>20</v>
       </c>
@@ -6750,7 +6790,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="220" spans="1:13" ht="15.75">
+    <row r="220" spans="1:14" ht="15.75">
       <c r="A220" s="1" t="s">
         <v>20</v>
       </c>
@@ -6775,7 +6815,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="221" spans="1:13" ht="15.75">
+    <row r="221" spans="1:14" ht="15.75">
       <c r="A221" s="1" t="s">
         <v>20</v>
       </c>
@@ -6802,7 +6842,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="222" spans="1:13" ht="15.75">
+    <row r="222" spans="1:14" ht="15.75">
       <c r="A222" s="1" t="s">
         <v>20</v>
       </c>
@@ -6827,7 +6867,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="223" spans="1:13" ht="15.75">
+    <row r="223" spans="1:14" ht="15.75">
       <c r="A223" s="1" t="s">
         <v>20</v>
       </c>
@@ -6854,7 +6894,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="224" spans="1:13" ht="15.75">
+    <row r="224" spans="1:14" ht="15.75">
       <c r="A224" s="1" t="s">
         <v>20</v>
       </c>
@@ -7257,7 +7297,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="241" spans="1:13" ht="15.75">
+    <row r="241" spans="1:14" ht="15.75">
       <c r="A241" s="1" t="s">
         <v>21</v>
       </c>
@@ -7282,7 +7322,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="242" spans="1:13" ht="15.75">
+    <row r="242" spans="1:14" ht="15.75">
       <c r="A242" s="1" t="s">
         <v>21</v>
       </c>
@@ -7307,7 +7347,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="243" spans="1:13" ht="15.75">
+    <row r="243" spans="1:14" ht="15.75">
       <c r="A243" s="1" t="s">
         <v>21</v>
       </c>
@@ -7332,7 +7372,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="244" spans="1:13" ht="15.75">
+    <row r="244" spans="1:14" ht="15.75">
       <c r="A244" s="1" t="s">
         <v>21</v>
       </c>
@@ -7357,7 +7397,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="245" spans="1:13" ht="15.75">
+    <row r="245" spans="1:14" ht="15.75">
       <c r="A245" s="1" t="s">
         <v>21</v>
       </c>
@@ -7384,7 +7424,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="246" spans="1:13" ht="15.75">
+    <row r="246" spans="1:14" ht="15.75">
       <c r="A246" s="1" t="s">
         <v>21</v>
       </c>
@@ -7409,7 +7449,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="247" spans="1:13" ht="15.75">
+    <row r="247" spans="1:14" ht="15.75">
       <c r="A247" s="1" t="s">
         <v>21</v>
       </c>
@@ -7436,7 +7476,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="248" spans="1:13" ht="15.75">
+    <row r="248" spans="1:14" ht="15.75">
       <c r="A248" s="1" t="s">
         <v>21</v>
       </c>
@@ -7463,8 +7503,11 @@
       <c r="M248" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="249" spans="1:13" ht="15.75">
+      <c r="N248" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="249" spans="1:14" ht="15.75">
       <c r="A249" s="1" t="s">
         <v>21</v>
       </c>
@@ -7491,7 +7534,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="250" spans="1:13" ht="15.75">
+    <row r="250" spans="1:14" ht="15.75">
       <c r="A250" s="1" t="s">
         <v>21</v>
       </c>
@@ -7516,7 +7559,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="251" spans="1:13" ht="15.75">
+    <row r="251" spans="1:14" ht="15.75">
       <c r="A251" s="1" t="s">
         <v>21</v>
       </c>
@@ -7541,7 +7584,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="252" spans="1:13" ht="15.75">
+    <row r="252" spans="1:14" ht="15.75">
       <c r="A252" s="1" t="s">
         <v>21</v>
       </c>
@@ -7568,7 +7611,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="253" spans="1:13" ht="15.75">
+    <row r="253" spans="1:14" ht="15.75">
       <c r="A253" s="1" t="s">
         <v>21</v>
       </c>
@@ -7593,7 +7636,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="254" spans="1:13" ht="15.75">
+    <row r="254" spans="1:14" ht="15.75">
       <c r="A254" s="1" t="s">
         <v>21</v>
       </c>
@@ -7621,7 +7664,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="255" spans="1:13" ht="15.75">
+    <row r="255" spans="1:14" ht="15.75">
       <c r="A255" s="1" t="s">
         <v>21</v>
       </c>
@@ -7646,7 +7689,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="256" spans="1:13" ht="15.75">
+    <row r="256" spans="1:14" ht="15.75">
       <c r="A256" s="1" t="s">
         <v>21</v>
       </c>
@@ -7736,9 +7779,7 @@
       <c r="D259" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G259" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G259" s="4"/>
       <c r="H259" s="4" t="s">
         <v>61</v>
       </c>
@@ -8079,7 +8120,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="273" spans="1:13" ht="15.75">
+    <row r="273" spans="1:14" ht="15.75">
       <c r="A273" s="1" t="s">
         <v>23</v>
       </c>
@@ -8106,7 +8147,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="274" spans="1:13" ht="15.75">
+    <row r="274" spans="1:14" ht="15.75">
       <c r="A274" s="1" t="s">
         <v>24</v>
       </c>
@@ -8131,7 +8172,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="275" spans="1:13" ht="15.75">
+    <row r="275" spans="1:14" ht="15.75">
       <c r="A275" s="1" t="s">
         <v>24</v>
       </c>
@@ -8160,8 +8201,11 @@
       <c r="M275" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="276" spans="1:13" ht="15.75">
+      <c r="N275" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="276" spans="1:14" ht="15.75">
       <c r="A276" s="1" t="s">
         <v>24</v>
       </c>
@@ -8188,7 +8232,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="277" spans="1:13" ht="15.75">
+    <row r="277" spans="1:14" ht="15.75">
       <c r="A277" s="1" t="s">
         <v>24</v>
       </c>
@@ -8215,7 +8259,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="278" spans="1:13" ht="15.75">
+    <row r="278" spans="1:14" ht="15.75">
       <c r="A278" s="1" t="s">
         <v>24</v>
       </c>
@@ -8242,7 +8286,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="279" spans="1:13" ht="15.75">
+    <row r="279" spans="1:14" ht="15.75">
       <c r="A279" s="1" t="s">
         <v>24</v>
       </c>
@@ -8267,7 +8311,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="280" spans="1:13" ht="15.75">
+    <row r="280" spans="1:14" ht="15.75">
       <c r="A280" s="1" t="s">
         <v>24</v>
       </c>
@@ -8292,7 +8336,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="281" spans="1:13" ht="15.75">
+    <row r="281" spans="1:14" ht="15.75">
       <c r="A281" s="1" t="s">
         <v>24</v>
       </c>
@@ -8317,7 +8361,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="282" spans="1:13" ht="15.75">
+    <row r="282" spans="1:14" ht="15.75">
       <c r="A282" s="1" t="s">
         <v>24</v>
       </c>
@@ -8342,7 +8386,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="283" spans="1:13" ht="15.75">
+    <row r="283" spans="1:14" ht="15.75">
       <c r="A283" s="1" t="s">
         <v>24</v>
       </c>
@@ -8365,7 +8409,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="284" spans="1:13" ht="15.75">
+    <row r="284" spans="1:14" ht="15.75">
       <c r="A284" s="1" t="s">
         <v>24</v>
       </c>
@@ -8388,7 +8432,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="285" spans="1:13" ht="15.75">
+    <row r="285" spans="1:14" ht="15.75">
       <c r="A285" s="1" t="s">
         <v>25</v>
       </c>
@@ -8411,7 +8455,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="286" spans="1:13" ht="15.75">
+    <row r="286" spans="1:14" ht="15.75">
       <c r="A286" s="1" t="s">
         <v>25</v>
       </c>
@@ -8434,7 +8478,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="287" spans="1:13" ht="15.75">
+    <row r="287" spans="1:14" ht="15.75">
       <c r="A287" s="1" t="s">
         <v>25</v>
       </c>
@@ -8457,7 +8501,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="288" spans="1:13" ht="15.75">
+    <row r="288" spans="1:14" ht="15.75">
       <c r="A288" s="1" t="s">
         <v>25</v>
       </c>
@@ -8904,7 +8948,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="305" spans="1:13" ht="15.75">
+    <row r="305" spans="1:14" ht="15.75">
       <c r="A305" s="1" t="s">
         <v>25</v>
       </c>
@@ -8934,8 +8978,11 @@
       <c r="M305" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="306" spans="1:13" ht="15.75">
+      <c r="N305" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" ht="15.75">
       <c r="A306" s="1" t="s">
         <v>25</v>
       </c>
@@ -8964,7 +9011,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="307" spans="1:13" ht="15.75">
+    <row r="307" spans="1:14" ht="15.75">
       <c r="A307" s="1" t="s">
         <v>25</v>
       </c>
@@ -8989,7 +9036,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="308" spans="1:13" ht="15.75">
+    <row r="308" spans="1:14" ht="15.75">
       <c r="A308" s="1" t="s">
         <v>25</v>
       </c>
@@ -9014,7 +9061,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="309" spans="1:13" ht="15.75">
+    <row r="309" spans="1:14" ht="15.75">
       <c r="A309" s="1" t="s">
         <v>25</v>
       </c>
@@ -9043,7 +9090,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="310" spans="1:13" ht="15.75">
+    <row r="310" spans="1:14" ht="15.75">
       <c r="A310" s="1" t="s">
         <v>25</v>
       </c>
@@ -9072,7 +9119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="311" spans="1:13" ht="15.75">
+    <row r="311" spans="1:14" ht="15.75">
       <c r="A311" s="1" t="s">
         <v>25</v>
       </c>
@@ -9099,7 +9146,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="312" spans="1:13" ht="15.75">
+    <row r="312" spans="1:14" ht="15.75">
       <c r="A312" s="1" t="s">
         <v>26</v>
       </c>
@@ -9126,7 +9173,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="313" spans="1:13" ht="15.75">
+    <row r="313" spans="1:14" ht="15.75">
       <c r="A313" s="1" t="s">
         <v>26</v>
       </c>
@@ -9151,7 +9198,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="314" spans="1:13" ht="15.75">
+    <row r="314" spans="1:14" ht="15.75">
       <c r="A314" s="1" t="s">
         <v>26</v>
       </c>
@@ -9176,7 +9223,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="315" spans="1:13" ht="15.75">
+    <row r="315" spans="1:14" ht="15.75">
       <c r="A315" s="1" t="s">
         <v>26</v>
       </c>
@@ -9191,9 +9238,7 @@
       </c>
       <c r="E315" s="5"/>
       <c r="F315" s="4"/>
-      <c r="G315" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G315" s="4"/>
       <c r="H315" s="4" t="s">
         <v>64</v>
       </c>
@@ -9205,7 +9250,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="316" spans="1:13" ht="15.75">
+    <row r="316" spans="1:14" ht="15.75">
       <c r="A316" s="1" t="s">
         <v>26</v>
       </c>
@@ -9232,7 +9277,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="317" spans="1:13" ht="15.75">
+    <row r="317" spans="1:14" ht="15.75">
       <c r="A317" s="1" t="s">
         <v>26</v>
       </c>
@@ -9247,9 +9292,7 @@
       </c>
       <c r="E317" s="5"/>
       <c r="F317" s="4"/>
-      <c r="G317" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G317" s="4"/>
       <c r="H317" s="4" t="s">
         <v>63</v>
       </c>
@@ -9261,7 +9304,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="318" spans="1:13" ht="15.75">
+    <row r="318" spans="1:14" ht="15.75">
       <c r="A318" s="1" t="s">
         <v>26</v>
       </c>
@@ -9276,9 +9319,7 @@
       </c>
       <c r="E318" s="5"/>
       <c r="F318" s="4"/>
-      <c r="G318" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G318" s="4"/>
       <c r="H318" s="4" t="s">
         <v>63</v>
       </c>
@@ -9290,7 +9331,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="319" spans="1:13" ht="15.75">
+    <row r="319" spans="1:14" ht="15.75">
       <c r="A319" s="1" t="s">
         <v>26</v>
       </c>
@@ -9305,9 +9346,7 @@
       </c>
       <c r="E319" s="5"/>
       <c r="F319" s="4"/>
-      <c r="G319" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G319" s="4"/>
       <c r="H319" s="4" t="s">
         <v>63</v>
       </c>
@@ -9319,7 +9358,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="320" spans="1:13" ht="15.75">
+    <row r="320" spans="1:14" ht="15.75">
       <c r="A320" s="1" t="s">
         <v>26</v>
       </c>
@@ -9336,9 +9375,7 @@
         <v>51</v>
       </c>
       <c r="F320" s="4"/>
-      <c r="G320" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G320" s="4"/>
       <c r="H320" s="4" t="s">
         <v>63</v>
       </c>
@@ -9349,6 +9386,9 @@
       <c r="M320" s="7" t="s">
         <v>71</v>
       </c>
+      <c r="N320" s="4" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="321" spans="1:13" ht="15.75">
       <c r="A321" s="1" t="s">
@@ -9365,9 +9405,7 @@
       </c>
       <c r="E321" s="5"/>
       <c r="F321" s="4"/>
-      <c r="G321" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G321" s="4"/>
       <c r="H321" s="4" t="s">
         <v>63</v>
       </c>
@@ -9419,9 +9457,7 @@
       </c>
       <c r="E323" s="5"/>
       <c r="F323" s="4"/>
-      <c r="G323" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G323" s="4"/>
       <c r="H323" s="4" t="s">
         <v>63</v>
       </c>
@@ -9448,9 +9484,7 @@
       </c>
       <c r="E324" s="5"/>
       <c r="F324" s="4"/>
-      <c r="G324" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G324" s="4"/>
       <c r="H324" s="4" t="s">
         <v>63</v>
       </c>
@@ -9502,9 +9536,7 @@
       </c>
       <c r="E326" s="5"/>
       <c r="F326" s="4"/>
-      <c r="G326" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G326" s="4"/>
       <c r="H326" s="4" t="s">
         <v>63</v>
       </c>
@@ -9531,9 +9563,7 @@
       </c>
       <c r="E327" s="5"/>
       <c r="F327" s="4"/>
-      <c r="G327" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G327" s="4"/>
       <c r="H327" s="4" t="s">
         <v>63</v>
       </c>
@@ -9585,9 +9615,7 @@
       </c>
       <c r="E329" s="5"/>
       <c r="F329" s="4"/>
-      <c r="G329" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G329" s="4"/>
       <c r="H329" s="4" t="s">
         <v>63</v>
       </c>
@@ -9697,9 +9725,7 @@
         <v>66</v>
       </c>
       <c r="F333" s="4"/>
-      <c r="G333" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G333" s="4"/>
       <c r="H333" s="4" t="s">
         <v>65</v>
       </c>
@@ -9792,7 +9818,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="337" spans="1:13" ht="15.75">
+    <row r="337" spans="1:14" ht="15.75">
       <c r="A337" s="1" t="s">
         <v>28</v>
       </c>
@@ -9818,7 +9844,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="338" spans="1:13" ht="15.75">
+    <row r="338" spans="1:14" ht="15.75">
       <c r="A338" s="1" t="s">
         <v>28</v>
       </c>
@@ -9844,7 +9870,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="339" spans="1:13" ht="15.75">
+    <row r="339" spans="1:14" ht="15.75">
       <c r="A339" s="1" t="s">
         <v>28</v>
       </c>
@@ -9870,7 +9896,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="340" spans="1:13" ht="15.75">
+    <row r="340" spans="1:14" ht="15.75">
       <c r="A340" s="1" t="s">
         <v>28</v>
       </c>
@@ -9896,7 +9922,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="341" spans="1:13" ht="15.75">
+    <row r="341" spans="1:14" ht="15.75">
       <c r="A341" s="1" t="s">
         <v>28</v>
       </c>
@@ -9921,8 +9947,11 @@
       <c r="M341" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="342" spans="1:13" ht="15.75">
+      <c r="N341" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="342" spans="1:14" ht="15.75">
       <c r="A342" s="1" t="s">
         <v>28</v>
       </c>
@@ -9948,7 +9977,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="343" spans="1:13" ht="15.75">
+    <row r="343" spans="1:14" ht="15.75">
       <c r="A343" s="1" t="s">
         <v>28</v>
       </c>
@@ -9974,7 +10003,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="344" spans="1:13" ht="15.75">
+    <row r="344" spans="1:14" ht="15.75">
       <c r="A344" s="1" t="s">
         <v>28</v>
       </c>
@@ -10000,7 +10029,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="345" spans="1:13" ht="15.75">
+    <row r="345" spans="1:14" ht="15.75">
       <c r="A345" s="1" t="s">
         <v>28</v>
       </c>
@@ -10026,7 +10055,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="346" spans="1:13" ht="15.75">
+    <row r="346" spans="1:14" ht="15.75">
       <c r="A346" s="1" t="s">
         <v>28</v>
       </c>
@@ -10052,7 +10081,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="347" spans="1:13" ht="15.75">
+    <row r="347" spans="1:14" ht="15.75">
       <c r="A347" s="1" t="s">
         <v>28</v>
       </c>
@@ -10078,7 +10107,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="348" spans="1:13" ht="15.75">
+    <row r="348" spans="1:14" ht="15.75">
       <c r="A348" s="1" t="s">
         <v>28</v>
       </c>
@@ -10106,7 +10135,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="349" spans="1:13" ht="15.75">
+    <row r="349" spans="1:14" ht="15.75">
       <c r="A349" s="1" t="s">
         <v>28</v>
       </c>
@@ -10134,7 +10163,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="350" spans="1:13" ht="15.75">
+    <row r="350" spans="1:14" ht="15.75">
       <c r="A350" s="1" t="s">
         <v>29</v>
       </c>
@@ -10161,7 +10190,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="351" spans="1:13" ht="15.75">
+    <row r="351" spans="1:14" ht="15.75">
       <c r="A351" s="1" t="s">
         <v>29</v>
       </c>
@@ -10190,7 +10219,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="352" spans="1:13" ht="15.75">
+    <row r="352" spans="1:14" ht="15.75">
       <c r="A352" s="1" t="s">
         <v>29</v>
       </c>
@@ -10219,8 +10248,11 @@
       <c r="M352" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="353" spans="1:13" ht="15.75">
+      <c r="N352" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="353" spans="1:14" ht="15.75">
       <c r="A353" s="1" t="s">
         <v>29</v>
       </c>
@@ -10245,7 +10277,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="354" spans="1:13" ht="15.75">
+    <row r="354" spans="1:14" ht="15.75">
       <c r="A354" s="1" t="s">
         <v>29</v>
       </c>
@@ -10270,7 +10302,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="355" spans="1:13" ht="15.75">
+    <row r="355" spans="1:14" ht="15.75">
       <c r="A355" s="1" t="s">
         <v>30</v>
       </c>
@@ -10297,7 +10329,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="356" spans="1:13" ht="15.75">
+    <row r="356" spans="1:14" ht="15.75">
       <c r="A356" s="1" t="s">
         <v>30</v>
       </c>
@@ -10324,7 +10356,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="357" spans="1:13" ht="15.75">
+    <row r="357" spans="1:14" ht="15.75">
       <c r="A357" s="1" t="s">
         <v>30</v>
       </c>
@@ -10351,7 +10383,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="358" spans="1:13" ht="15.75">
+    <row r="358" spans="1:14" ht="15.75">
       <c r="A358" s="1" t="s">
         <v>30</v>
       </c>
@@ -10378,7 +10410,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="359" spans="1:13" ht="15.75">
+    <row r="359" spans="1:14" ht="15.75">
       <c r="A359" s="1" t="s">
         <v>30</v>
       </c>
@@ -10403,7 +10435,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="360" spans="1:13" ht="15.75">
+    <row r="360" spans="1:14" ht="15.75">
       <c r="A360" s="1" t="s">
         <v>30</v>
       </c>
@@ -10430,7 +10462,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="361" spans="1:13" ht="15.75">
+    <row r="361" spans="1:14" ht="15.75">
       <c r="A361" s="1" t="s">
         <v>31</v>
       </c>
@@ -10457,7 +10489,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="362" spans="1:13" ht="15.75">
+    <row r="362" spans="1:14" ht="15.75">
       <c r="A362" s="1" t="s">
         <v>31</v>
       </c>
@@ -10484,7 +10516,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="363" spans="1:13" ht="15.75">
+    <row r="363" spans="1:14" ht="15.75">
       <c r="A363" s="1" t="s">
         <v>31</v>
       </c>
@@ -10509,7 +10541,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="364" spans="1:13" ht="15.75">
+    <row r="364" spans="1:14" ht="15.75">
       <c r="A364" s="1" t="s">
         <v>31</v>
       </c>
@@ -10536,8 +10568,11 @@
       <c r="M364" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="365" spans="1:13" ht="15.75">
+      <c r="N364" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" ht="15.75">
       <c r="A365" s="1" t="s">
         <v>31</v>
       </c>
@@ -10562,7 +10597,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="366" spans="1:13" ht="15.75">
+    <row r="366" spans="1:14" ht="15.75">
       <c r="A366" s="1" t="s">
         <v>31</v>
       </c>
@@ -10589,7 +10624,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="367" spans="1:13" ht="15.75">
+    <row r="367" spans="1:14" ht="15.75">
       <c r="A367" s="1" t="s">
         <v>31</v>
       </c>
@@ -10616,7 +10651,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="368" spans="1:13" ht="15.75">
+    <row r="368" spans="1:14" ht="15.75">
       <c r="A368" s="1" t="s">
         <v>31</v>
       </c>
@@ -10641,7 +10676,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="369" spans="1:13" ht="15.75">
+    <row r="369" spans="1:14" ht="15.75">
       <c r="A369" s="1" t="s">
         <v>31</v>
       </c>
@@ -10668,7 +10703,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="370" spans="1:13" ht="15.75">
+    <row r="370" spans="1:14" ht="15.75">
       <c r="A370" s="1" t="s">
         <v>32</v>
       </c>
@@ -10695,7 +10730,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="371" spans="1:13" ht="15.75">
+    <row r="371" spans="1:14" ht="15.75">
       <c r="A371" s="1" t="s">
         <v>32</v>
       </c>
@@ -10722,7 +10757,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="372" spans="1:13" ht="15.75">
+    <row r="372" spans="1:14" ht="15.75">
       <c r="A372" s="1" t="s">
         <v>32</v>
       </c>
@@ -10749,7 +10784,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="373" spans="1:13" ht="15.75">
+    <row r="373" spans="1:14" ht="15.75">
       <c r="A373" s="1" t="s">
         <v>32</v>
       </c>
@@ -10777,8 +10812,11 @@
       <c r="M373" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="374" spans="1:13" ht="15.75">
+      <c r="N373" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="374" spans="1:14" ht="15.75">
       <c r="A374" s="1" t="s">
         <v>32</v>
       </c>
@@ -10805,7 +10843,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="375" spans="1:13" ht="15.75">
+    <row r="375" spans="1:14" ht="15.75">
       <c r="A375" s="1" t="s">
         <v>32</v>
       </c>
@@ -10832,7 +10870,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="376" spans="1:13" ht="15.75">
+    <row r="376" spans="1:14" ht="15.75">
       <c r="A376" s="1" t="s">
         <v>32</v>
       </c>
@@ -10859,7 +10897,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="377" spans="1:13" ht="15.75">
+    <row r="377" spans="1:14" ht="15.75">
       <c r="A377" s="1" t="s">
         <v>32</v>
       </c>
@@ -10874,9 +10912,7 @@
       </c>
       <c r="E377" s="5"/>
       <c r="F377" s="4"/>
-      <c r="G377" s="4" t="s">
-        <v>43</v>
-      </c>
+      <c r="G377" s="4"/>
       <c r="H377" s="4" t="s">
         <v>70</v>
       </c>
@@ -10890,7 +10926,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="378" spans="1:13" ht="15.75">
+    <row r="378" spans="1:14" ht="15.75">
       <c r="A378" s="1" t="s">
         <v>32</v>
       </c>
@@ -10917,7 +10953,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="379" spans="1:13" ht="15.75">
+    <row r="379" spans="1:14" ht="15.75">
       <c r="A379" s="1" t="s">
         <v>32</v>
       </c>
@@ -10944,7 +10980,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="380" spans="1:13" ht="15.75">
+    <row r="380" spans="1:14" ht="15.75">
       <c r="A380" s="1" t="s">
         <v>32</v>
       </c>
@@ -10973,7 +11009,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="381" spans="1:13" ht="15.75">
+    <row r="381" spans="1:14" ht="15.75">
       <c r="A381" s="1" t="s">
         <v>32</v>
       </c>
@@ -11000,7 +11036,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="382" spans="1:13" ht="15.75">
+    <row r="382" spans="1:14" ht="15.75">
       <c r="A382" s="1" t="s">
         <v>34</v>
       </c>
@@ -11027,7 +11063,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="383" spans="1:13" ht="15.75">
+    <row r="383" spans="1:14" ht="15.75">
       <c r="A383" s="1" t="s">
         <v>34</v>
       </c>
@@ -11054,7 +11090,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="384" spans="1:13" ht="15.75">
+    <row r="384" spans="1:14" ht="15.75">
       <c r="A384" s="1" t="s">
         <v>34</v>
       </c>
@@ -11081,7 +11117,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="385" spans="1:13" ht="15.75">
+    <row r="385" spans="1:14" ht="15.75">
       <c r="A385" s="1" t="s">
         <v>34</v>
       </c>
@@ -11106,7 +11142,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="386" spans="1:13" ht="15.75">
+    <row r="386" spans="1:14" ht="15.75">
       <c r="A386" s="1" t="s">
         <v>34</v>
       </c>
@@ -11131,7 +11167,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="387" spans="1:13" ht="15.75">
+    <row r="387" spans="1:14" ht="15.75">
       <c r="A387" s="1" t="s">
         <v>34</v>
       </c>
@@ -11156,8 +11192,11 @@
       <c r="M387" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="388" spans="1:13" ht="15.75">
+      <c r="N387" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="388" spans="1:14" ht="15.75">
       <c r="A388" s="1" t="s">
         <v>34</v>
       </c>
@@ -11182,7 +11221,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="389" spans="1:13" ht="15.75">
+    <row r="389" spans="1:14" ht="15.75">
       <c r="A389" s="1" t="s">
         <v>34</v>
       </c>
@@ -11207,7 +11246,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="390" spans="1:13" ht="15.75">
+    <row r="390" spans="1:14" ht="15.75">
       <c r="A390" s="1" t="s">
         <v>35</v>
       </c>
@@ -11234,7 +11273,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="391" spans="1:13" ht="15.75">
+    <row r="391" spans="1:14" ht="15.75">
       <c r="A391" s="1" t="s">
         <v>35</v>
       </c>
@@ -11261,8 +11300,11 @@
       <c r="M391" s="7" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="392" spans="1:13" ht="15.75">
+      <c r="N391" s="4" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="392" spans="1:14" ht="15.75">
       <c r="A392" s="1" t="s">
         <v>35</v>
       </c>
@@ -11287,7 +11329,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="393" spans="1:13" ht="15.75">
+    <row r="393" spans="1:14" ht="15.75">
       <c r="A393" s="1" t="s">
         <v>35</v>
       </c>
@@ -11312,7 +11354,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="394" spans="1:13" ht="15.75">
+    <row r="394" spans="1:14" ht="15.75">
       <c r="A394" s="1" t="s">
         <v>35</v>
       </c>
@@ -11337,7 +11379,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="395" spans="1:13" ht="15.75">
+    <row r="395" spans="1:14" ht="15.75">
       <c r="A395" s="1" t="s">
         <v>35</v>
       </c>
@@ -11362,7 +11404,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="396" spans="1:13" ht="15.75">
+    <row r="396" spans="1:14" ht="15.75">
       <c r="A396" s="1" t="s">
         <v>35</v>
       </c>
@@ -11389,7 +11431,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="397" spans="1:13" ht="15.75">
+    <row r="397" spans="1:14" ht="15.75">
       <c r="A397" s="1" t="s">
         <v>35</v>
       </c>
@@ -11416,7 +11458,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="398" spans="1:13" ht="15.75">
+    <row r="398" spans="1:14" ht="15.75">
       <c r="A398" s="1" t="s">
         <v>35</v>
       </c>
@@ -11446,7 +11488,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="399" spans="1:13" ht="15.75">
+    <row r="399" spans="1:14" ht="15.75">
       <c r="A399" s="1" t="s">
         <v>35</v>
       </c>
@@ -11469,7 +11511,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="400" spans="1:13" ht="15.75">
+    <row r="400" spans="1:14" ht="15.75">
       <c r="A400" s="1" t="s">
         <v>35</v>
       </c>
